--- a/sample.xlsx
+++ b/sample.xlsx
@@ -12,12 +12,12 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="111">
   <si>
     <t>Ścieżka ===&gt;&gt;</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Czernić</t>
   </si>
   <si>
-    <t>PRT-A0069147</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
     <t>P.P</t>
   </si>
   <si>
-    <t>PRT-A0070434</t>
-  </si>
-  <si>
     <t>Głowica pobierająca detal</t>
   </si>
   <si>
@@ -358,6 +352,9 @@
   </si>
   <si>
     <t>2011-600-PRT-A0071262-A-Podpora PL</t>
+  </si>
+  <si>
+    <t>PRT-A0070434-LUSTRO</t>
   </si>
 </sst>
 </file>
@@ -1832,6 +1829,7 @@
       <sheetName val="POMOC"/>
       <sheetName val="DETALE"/>
       <sheetName val="PARAMETRY"/>
+      <sheetName val="2011 - Lista zamówieniowa OBRÓB"/>
     </sheetNames>
     <definedNames>
       <definedName name="CzyJestX"/>
@@ -1840,6 +1838,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2100,7 +2099,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2111,7 +2110,7 @@
   <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2147,7 +2146,7 @@
     <col min="29" max="29" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="63" thickTop="1" thickBot="1">
+    <row r="1" spans="1:29" ht="47.5" thickTop="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2430,7 +2429,7 @@
         <v>45082</v>
       </c>
       <c r="S6" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T6" s="75"/>
       <c r="U6" s="76"/>
@@ -2443,7 +2442,7 @@
       <c r="AB6" s="80"/>
       <c r="AC6" s="81"/>
     </row>
-    <row r="7" spans="1:29" ht="23.5">
+    <row r="7" spans="1:29" ht="35">
       <c r="A7" s="64">
         <v>113</v>
       </c>
@@ -2456,20 +2455,20 @@
       <c r="F7" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="I7" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="68" t="s">
+      <c r="J7" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="K7" s="69" t="s">
         <v>50</v>
-      </c>
-      <c r="K7" s="69" t="s">
-        <v>51</v>
       </c>
       <c r="L7" s="68" t="s">
         <v>43</v>
@@ -2491,7 +2490,7 @@
         <v>45082</v>
       </c>
       <c r="S7" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T7" s="75"/>
       <c r="U7" s="76"/>
@@ -2520,19 +2519,19 @@
         <v>38</v>
       </c>
       <c r="G8" s="68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="69" t="s">
         <v>40</v>
       </c>
       <c r="I8" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="69" t="s">
-        <v>54</v>
-      </c>
       <c r="K8" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="68" t="s">
         <v>43</v>
@@ -2554,7 +2553,7 @@
         <v>45082</v>
       </c>
       <c r="S8" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T8" s="75"/>
       <c r="U8" s="76"/>
@@ -2583,19 +2582,19 @@
         <v>38</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="69" t="s">
         <v>40</v>
       </c>
       <c r="I9" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="69" t="s">
-        <v>57</v>
-      </c>
       <c r="K9" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="68" t="s">
         <v>43</v>
@@ -2617,7 +2616,7 @@
         <v>45082</v>
       </c>
       <c r="S9" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T9" s="75"/>
       <c r="U9" s="76"/>
@@ -2646,26 +2645,26 @@
         <v>38</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="69" t="s">
         <v>40</v>
       </c>
       <c r="I10" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="69" t="s">
         <v>60</v>
-      </c>
-      <c r="J10" s="69" t="s">
-        <v>61</v>
       </c>
       <c r="K10" s="69"/>
       <c r="L10" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M10" s="68" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O10" s="68" t="s">
         <v>46</v>
@@ -2678,7 +2677,7 @@
         <v>45082</v>
       </c>
       <c r="S10" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T10" s="75"/>
       <c r="U10" s="76"/>
@@ -2711,28 +2710,28 @@
         <v>38</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="69" t="s">
         <v>40</v>
       </c>
       <c r="I11" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="69" t="s">
-        <v>66</v>
-      </c>
       <c r="K11" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L11" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M11" s="68" t="s">
         <v>44</v>
       </c>
       <c r="N11" s="68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O11" s="68" t="s">
         <v>46</v>
@@ -2745,7 +2744,7 @@
         <v>45082</v>
       </c>
       <c r="S11" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T11" s="75"/>
       <c r="U11" s="76"/>
@@ -2778,28 +2777,28 @@
         <v>38</v>
       </c>
       <c r="G12" s="68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="69" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="69" t="s">
-        <v>69</v>
-      </c>
       <c r="K12" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L12" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M12" s="68" t="s">
         <v>44</v>
       </c>
       <c r="N12" s="68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O12" s="68" t="s">
         <v>46</v>
@@ -2812,7 +2811,7 @@
         <v>45082</v>
       </c>
       <c r="S12" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T12" s="75"/>
       <c r="U12" s="76"/>
@@ -2845,31 +2844,31 @@
         <v>38</v>
       </c>
       <c r="G13" s="68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="69" t="s">
         <v>40</v>
       </c>
       <c r="I13" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="K13" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="68" t="s">
+      <c r="M13" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="68" t="s">
-        <v>74</v>
-      </c>
       <c r="N13" s="68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O13" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P13" s="71"/>
       <c r="Q13" s="72">
@@ -2879,7 +2878,7 @@
         <v>45082</v>
       </c>
       <c r="S13" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T13" s="75"/>
       <c r="U13" s="76"/>
@@ -2912,31 +2911,31 @@
         <v>38</v>
       </c>
       <c r="G14" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" s="69" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="69" t="s">
-        <v>77</v>
-      </c>
       <c r="K14" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="68" t="s">
-        <v>74</v>
-      </c>
       <c r="N14" s="68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O14" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P14" s="71"/>
       <c r="Q14" s="72">
@@ -2946,7 +2945,7 @@
         <v>45082</v>
       </c>
       <c r="S14" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T14" s="75"/>
       <c r="U14" s="76"/>
@@ -2979,31 +2978,31 @@
         <v>38</v>
       </c>
       <c r="G15" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="69" t="s">
         <v>40</v>
       </c>
       <c r="I15" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="69" t="s">
+      <c r="K15" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="68" t="s">
-        <v>81</v>
-      </c>
       <c r="O15" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P15" s="71"/>
       <c r="Q15" s="72">
@@ -3013,7 +3012,7 @@
         <v>45082</v>
       </c>
       <c r="S15" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T15" s="75"/>
       <c r="U15" s="76"/>
@@ -3036,41 +3035,37 @@
       <c r="C16" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>37</v>
-      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="84" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="H16" s="85" t="s">
         <v>40</v>
       </c>
       <c r="I16" s="84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J16" s="85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K16" s="85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L16" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="M16" s="84" t="s">
-        <v>74</v>
-      </c>
       <c r="N16" s="84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P16" s="86"/>
       <c r="Q16" s="72">
@@ -3080,7 +3075,7 @@
         <v>45082</v>
       </c>
       <c r="S16" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T16" s="75"/>
       <c r="U16" s="76"/>
@@ -3110,32 +3105,32 @@
         <v>37</v>
       </c>
       <c r="F17" s="93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G17" s="93" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H17" s="93" t="s">
         <v>40</v>
       </c>
       <c r="I17" s="94" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J17" s="95" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K17" s="93"/>
       <c r="L17" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="M17" s="93" t="s">
-        <v>74</v>
-      </c>
       <c r="N17" s="94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O17" s="96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P17" s="97"/>
       <c r="Q17" s="98">
@@ -3145,7 +3140,7 @@
         <v>45082</v>
       </c>
       <c r="S17" s="99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T17" s="75"/>
       <c r="U17" s="97"/>
@@ -3175,32 +3170,32 @@
         <v>37</v>
       </c>
       <c r="F18" s="93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G18" s="93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H18" s="93" t="s">
         <v>40</v>
       </c>
       <c r="I18" s="94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J18" s="95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K18" s="93"/>
       <c r="L18" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="M18" s="93" t="s">
-        <v>74</v>
-      </c>
       <c r="N18" s="94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O18" s="96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P18" s="97"/>
       <c r="Q18" s="98">
@@ -3210,7 +3205,7 @@
         <v>45082</v>
       </c>
       <c r="S18" s="99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T18" s="75"/>
       <c r="U18" s="97"/>
@@ -3240,32 +3235,32 @@
         <v>37</v>
       </c>
       <c r="F19" s="93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G19" s="93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H19" s="93" t="s">
         <v>40</v>
       </c>
       <c r="I19" s="94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J19" s="95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K19" s="93"/>
       <c r="L19" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="93" t="s">
-        <v>74</v>
-      </c>
       <c r="N19" s="94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O19" s="96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P19" s="97"/>
       <c r="Q19" s="98">
@@ -3275,7 +3270,7 @@
         <v>45082</v>
       </c>
       <c r="S19" s="99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T19" s="75"/>
       <c r="U19" s="97"/>
@@ -3301,32 +3296,32 @@
       <c r="D20" s="70"/>
       <c r="E20" s="70"/>
       <c r="F20" s="93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G20" s="93" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H20" s="93" t="s">
         <v>40</v>
       </c>
       <c r="I20" s="94" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J20" s="95" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K20" s="93"/>
       <c r="L20" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="93" t="s">
-        <v>74</v>
-      </c>
       <c r="N20" s="94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O20" s="96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P20" s="97"/>
       <c r="Q20" s="98">
@@ -3336,7 +3331,7 @@
         <v>45082</v>
       </c>
       <c r="S20" s="99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T20" s="75"/>
       <c r="U20" s="97"/>
@@ -3362,32 +3357,32 @@
       <c r="D21" s="70"/>
       <c r="E21" s="70"/>
       <c r="F21" s="93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H21" s="93" t="s">
         <v>40</v>
       </c>
       <c r="I21" s="94" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J21" s="95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K21" s="93"/>
       <c r="L21" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="93" t="s">
-        <v>74</v>
-      </c>
       <c r="N21" s="94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O21" s="96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P21" s="97"/>
       <c r="Q21" s="98">
@@ -3397,7 +3392,7 @@
         <v>45082</v>
       </c>
       <c r="S21" s="99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T21" s="75"/>
       <c r="U21" s="97"/>
@@ -3423,32 +3418,32 @@
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
       <c r="F22" s="93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G22" s="93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H22" s="93" t="s">
         <v>40</v>
       </c>
       <c r="I22" s="94" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J22" s="95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K22" s="93"/>
       <c r="L22" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="M22" s="93" t="s">
-        <v>74</v>
-      </c>
       <c r="N22" s="94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O22" s="96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P22" s="97"/>
       <c r="Q22" s="98">
@@ -3458,7 +3453,7 @@
         <v>45082</v>
       </c>
       <c r="S22" s="99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T22" s="75"/>
       <c r="U22" s="97"/>
@@ -3488,32 +3483,32 @@
         <v>37</v>
       </c>
       <c r="F23" s="93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G23" s="93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H23" s="93" t="s">
         <v>40</v>
       </c>
       <c r="I23" s="94" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J23" s="95" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K23" s="93"/>
       <c r="L23" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="M23" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="M23" s="93" t="s">
-        <v>74</v>
-      </c>
       <c r="N23" s="94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O23" s="96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P23" s="97"/>
       <c r="Q23" s="98">
@@ -3523,7 +3518,7 @@
         <v>45082</v>
       </c>
       <c r="S23" s="99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T23" s="75"/>
       <c r="U23" s="97"/>
@@ -3553,32 +3548,32 @@
         <v>37</v>
       </c>
       <c r="F24" s="93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G24" s="93" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H24" s="93" t="s">
         <v>40</v>
       </c>
       <c r="I24" s="94" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J24" s="95" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K24" s="93"/>
       <c r="L24" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="M24" s="93" t="s">
-        <v>74</v>
-      </c>
       <c r="N24" s="94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O24" s="96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P24" s="97"/>
       <c r="Q24" s="98">
@@ -3588,7 +3583,7 @@
         <v>45082</v>
       </c>
       <c r="S24" s="99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T24" s="75"/>
       <c r="U24" s="97"/>
@@ -3639,28 +3634,26 @@
     <hyperlink ref="D15" r:id="rId20"/>
     <hyperlink ref="E15" r:id="rId21"/>
     <hyperlink ref="C16" r:id="rId22"/>
-    <hyperlink ref="D16" r:id="rId23"/>
-    <hyperlink ref="E16" r:id="rId24"/>
-    <hyperlink ref="C17" r:id="rId25"/>
-    <hyperlink ref="D17" r:id="rId26"/>
-    <hyperlink ref="E17" r:id="rId27"/>
-    <hyperlink ref="C18" r:id="rId28"/>
-    <hyperlink ref="D18" r:id="rId29"/>
-    <hyperlink ref="E18" r:id="rId30"/>
-    <hyperlink ref="C19" r:id="rId31"/>
-    <hyperlink ref="D19" r:id="rId32"/>
-    <hyperlink ref="E19" r:id="rId33"/>
-    <hyperlink ref="C20" r:id="rId34"/>
-    <hyperlink ref="C21" r:id="rId35"/>
-    <hyperlink ref="C22" r:id="rId36"/>
-    <hyperlink ref="C23" r:id="rId37"/>
-    <hyperlink ref="D23" r:id="rId38"/>
-    <hyperlink ref="E23" r:id="rId39"/>
-    <hyperlink ref="C24" r:id="rId40"/>
-    <hyperlink ref="D24" r:id="rId41"/>
-    <hyperlink ref="E24" r:id="rId42"/>
+    <hyperlink ref="C17" r:id="rId23"/>
+    <hyperlink ref="D17" r:id="rId24"/>
+    <hyperlink ref="E17" r:id="rId25"/>
+    <hyperlink ref="C18" r:id="rId26"/>
+    <hyperlink ref="D18" r:id="rId27"/>
+    <hyperlink ref="E18" r:id="rId28"/>
+    <hyperlink ref="C19" r:id="rId29"/>
+    <hyperlink ref="D19" r:id="rId30"/>
+    <hyperlink ref="E19" r:id="rId31"/>
+    <hyperlink ref="C20" r:id="rId32"/>
+    <hyperlink ref="C21" r:id="rId33"/>
+    <hyperlink ref="C22" r:id="rId34"/>
+    <hyperlink ref="C23" r:id="rId35"/>
+    <hyperlink ref="D23" r:id="rId36"/>
+    <hyperlink ref="E23" r:id="rId37"/>
+    <hyperlink ref="C24" r:id="rId38"/>
+    <hyperlink ref="D24" r:id="rId39"/>
+    <hyperlink ref="E24" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId43"/>
+  <drawing r:id="rId41"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="109">
   <si>
     <t>Ścieżka ===&gt;&gt;</t>
   </si>
@@ -138,9 +138,6 @@
     <t>STEP</t>
   </si>
   <si>
-    <t>M. Ziętal</t>
-  </si>
-  <si>
     <t>PRT-A0071721</t>
   </si>
   <si>
@@ -267,18 +264,12 @@
     <t>32 HRC±2HRC</t>
   </si>
   <si>
-    <t>P.P</t>
-  </si>
-  <si>
     <t>Głowica pobierająca detal</t>
   </si>
   <si>
     <t>2011-200-PRT-A0070434-A-Głowica pobierająca detal</t>
   </si>
   <si>
-    <t>M.Gołuch</t>
-  </si>
-  <si>
     <t>PRT-A0071455</t>
   </si>
   <si>
@@ -318,9 +309,6 @@
     <t>2011-600-PRT-A0071261-A-Podpora TL</t>
   </si>
   <si>
-    <t>PRT-A0071267</t>
-  </si>
-  <si>
     <t>Podpora PP</t>
   </si>
   <si>
@@ -355,13 +343,19 @@
   </si>
   <si>
     <t>PRT-A0070434-LUSTRO</t>
+  </si>
+  <si>
+    <t>PRT-A0071267-lustro2</t>
+  </si>
+  <si>
+    <t>m. Ziętal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,12 +451,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1277,13 +1265,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1343,53 +1331,53 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1397,15 +1385,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1417,115 +1405,115 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1539,39 +1527,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1579,7 +1567,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1587,7 +1575,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1595,66 +1583,62 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1706,27 +1690,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -2109,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2172,24 +2156,24 @@
       <c r="O1" s="11"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="35"/>
-      <c r="R1" s="100" t="s">
+      <c r="R1" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="106" t="s">
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="112" t="s">
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="116" t="s">
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="115" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2213,18 +2197,18 @@
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="36"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="117"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="114"/>
+      <c r="AC2" s="116"/>
     </row>
     <row r="3" spans="1:29" ht="15" thickTop="1">
       <c r="A3" s="17"/>
@@ -2394,32 +2378,32 @@
         <v>37</v>
       </c>
       <c r="F6" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="H6" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="I6" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="J6" s="69" t="s">
         <v>41</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>42</v>
       </c>
       <c r="K6" s="69"/>
       <c r="L6" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="68" t="s">
+      <c r="N6" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="68" t="s">
+      <c r="O6" s="68" t="s">
         <v>45</v>
-      </c>
-      <c r="O6" s="68" t="s">
-        <v>46</v>
       </c>
       <c r="P6" s="71"/>
       <c r="Q6" s="72">
@@ -2429,7 +2413,7 @@
         <v>45082</v>
       </c>
       <c r="S6" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T6" s="75"/>
       <c r="U6" s="76"/>
@@ -2453,34 +2437,34 @@
       <c r="D7" s="70"/>
       <c r="E7" s="70"/>
       <c r="F7" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>106</v>
       </c>
       <c r="H7" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="68" t="s">
+      <c r="J7" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="K7" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="69" t="s">
-        <v>50</v>
-      </c>
       <c r="L7" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="N7" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="68" t="s">
+      <c r="O7" s="68" t="s">
         <v>45</v>
-      </c>
-      <c r="O7" s="68" t="s">
-        <v>46</v>
       </c>
       <c r="P7" s="71"/>
       <c r="Q7" s="72">
@@ -2490,7 +2474,7 @@
         <v>45082</v>
       </c>
       <c r="S7" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T7" s="75"/>
       <c r="U7" s="76"/>
@@ -2516,34 +2500,34 @@
       <c r="D8" s="70"/>
       <c r="E8" s="70"/>
       <c r="F8" s="67" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="G8" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="68" t="s">
+      <c r="J8" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="69" t="s">
-        <v>53</v>
-      </c>
       <c r="K8" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="68" t="s">
+      <c r="N8" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="68" t="s">
+      <c r="O8" s="68" t="s">
         <v>45</v>
-      </c>
-      <c r="O8" s="68" t="s">
-        <v>46</v>
       </c>
       <c r="P8" s="71"/>
       <c r="Q8" s="72">
@@ -2553,7 +2537,7 @@
         <v>45082</v>
       </c>
       <c r="S8" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T8" s="75"/>
       <c r="U8" s="76"/>
@@ -2579,34 +2563,34 @@
       <c r="D9" s="70"/>
       <c r="E9" s="70"/>
       <c r="F9" s="67" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="G9" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="68" t="s">
+      <c r="J9" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="69" t="s">
-        <v>56</v>
-      </c>
       <c r="K9" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L9" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="68" t="s">
+      <c r="N9" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="68" t="s">
+      <c r="O9" s="68" t="s">
         <v>45</v>
-      </c>
-      <c r="O9" s="68" t="s">
-        <v>46</v>
       </c>
       <c r="P9" s="71"/>
       <c r="Q9" s="72">
@@ -2616,7 +2600,7 @@
         <v>45082</v>
       </c>
       <c r="S9" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T9" s="75"/>
       <c r="U9" s="76"/>
@@ -2642,32 +2626,32 @@
       <c r="D10" s="70"/>
       <c r="E10" s="70"/>
       <c r="F10" s="67" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="G10" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="68" t="s">
+      <c r="J10" s="69" t="s">
         <v>59</v>
-      </c>
-      <c r="J10" s="69" t="s">
-        <v>60</v>
       </c>
       <c r="K10" s="69"/>
       <c r="L10" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="68" t="s">
-        <v>62</v>
-      </c>
       <c r="O10" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" s="71"/>
       <c r="Q10" s="72">
@@ -2677,7 +2661,7 @@
         <v>45082</v>
       </c>
       <c r="S10" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T10" s="75"/>
       <c r="U10" s="76"/>
@@ -2700,41 +2684,39 @@
       <c r="C11" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="70" t="s">
-        <v>36</v>
-      </c>
+      <c r="D11" s="70"/>
       <c r="E11" s="70" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="67" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="G11" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="68" t="s">
+      <c r="J11" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="69" t="s">
-        <v>65</v>
-      </c>
       <c r="K11" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="68" t="s">
-        <v>62</v>
-      </c>
       <c r="O11" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P11" s="71"/>
       <c r="Q11" s="72">
@@ -2744,7 +2726,7 @@
         <v>45082</v>
       </c>
       <c r="S11" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T11" s="75"/>
       <c r="U11" s="76"/>
@@ -2774,34 +2756,34 @@
         <v>37</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="G12" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="68" t="s">
+      <c r="J12" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="69" t="s">
-        <v>68</v>
-      </c>
       <c r="K12" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="M12" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="68" t="s">
-        <v>62</v>
-      </c>
       <c r="O12" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P12" s="71"/>
       <c r="Q12" s="72">
@@ -2811,7 +2793,7 @@
         <v>45082</v>
       </c>
       <c r="S12" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T12" s="75"/>
       <c r="U12" s="76"/>
@@ -2841,34 +2823,34 @@
         <v>37</v>
       </c>
       <c r="F13" s="67" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="G13" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="68" t="s">
+      <c r="J13" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="K13" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="68" t="s">
+      <c r="M13" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="68" t="s">
-        <v>73</v>
-      </c>
       <c r="N13" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O13" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="71"/>
       <c r="Q13" s="72">
@@ -2878,7 +2860,7 @@
         <v>45082</v>
       </c>
       <c r="S13" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T13" s="75"/>
       <c r="U13" s="76"/>
@@ -2908,34 +2890,34 @@
         <v>37</v>
       </c>
       <c r="F14" s="67" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="G14" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="68" t="s">
+      <c r="J14" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="69" t="s">
-        <v>76</v>
-      </c>
       <c r="K14" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="68" t="s">
-        <v>73</v>
-      </c>
       <c r="N14" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O14" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P14" s="71"/>
       <c r="Q14" s="72">
@@ -2945,7 +2927,7 @@
         <v>45082</v>
       </c>
       <c r="S14" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T14" s="75"/>
       <c r="U14" s="76"/>
@@ -2975,34 +2957,34 @@
         <v>37</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="G15" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="68" t="s">
+      <c r="J15" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="69" t="s">
+      <c r="K15" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="K15" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="M15" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" s="68" t="s">
-        <v>80</v>
-      </c>
       <c r="O15" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P15" s="71"/>
       <c r="Q15" s="72">
@@ -3012,7 +2994,7 @@
         <v>45082</v>
       </c>
       <c r="S15" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T15" s="75"/>
       <c r="U15" s="76"/>
@@ -3037,37 +3019,37 @@
       </c>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" s="84" t="s">
+      <c r="K16" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="M16" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="N16" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="O16" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" s="86"/>
+      <c r="N16" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="85"/>
       <c r="Q16" s="72">
         <v>1</v>
       </c>
@@ -3075,21 +3057,21 @@
         <v>45082</v>
       </c>
       <c r="S16" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T16" s="75"/>
       <c r="U16" s="76"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="91"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="88"/>
+      <c r="Y16" s="88"/>
+      <c r="Z16" s="88"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="90"/>
     </row>
     <row r="17" spans="1:29" ht="21">
-      <c r="A17" s="92">
+      <c r="A17" s="91">
         <v>222</v>
       </c>
       <c r="B17" s="82">
@@ -3104,57 +3086,57 @@
       <c r="E17" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="93" t="s">
+      <c r="F17" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="93" t="s">
+      <c r="K17" s="92"/>
+      <c r="L17" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="M17" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="N17" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="O17" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="98">
+      <c r="O17" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="97">
         <v>1</v>
       </c>
       <c r="R17" s="73">
         <v>45082</v>
       </c>
-      <c r="S17" s="99" t="s">
-        <v>57</v>
+      <c r="S17" s="98" t="s">
+        <v>56</v>
       </c>
       <c r="T17" s="75"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="88"/>
-      <c r="W17" s="88"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="90"/>
-      <c r="AC17" s="91"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="88"/>
+      <c r="Y17" s="88"/>
+      <c r="Z17" s="88"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="90"/>
     </row>
     <row r="18" spans="1:29" ht="21">
-      <c r="A18" s="92">
+      <c r="A18" s="91">
         <v>223</v>
       </c>
       <c r="B18" s="82">
@@ -3169,57 +3151,57 @@
       <c r="E18" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93" t="s">
+      <c r="F18" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="O18" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="98">
+      <c r="N18" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="O18" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="97">
         <v>1</v>
       </c>
       <c r="R18" s="73">
         <v>45082</v>
       </c>
-      <c r="S18" s="99" t="s">
-        <v>57</v>
+      <c r="S18" s="98" t="s">
+        <v>56</v>
       </c>
       <c r="T18" s="75"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="90"/>
-      <c r="AC18" s="91"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="90"/>
     </row>
     <row r="19" spans="1:29" ht="21">
-      <c r="A19" s="92">
+      <c r="A19" s="91">
         <v>224</v>
       </c>
       <c r="B19" s="82">
@@ -3234,57 +3216,57 @@
       <c r="E19" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93" t="s">
+      <c r="F19" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="M19" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="N19" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="O19" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="98">
+      <c r="N19" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="O19" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97">
         <v>1</v>
       </c>
       <c r="R19" s="73">
         <v>45082</v>
       </c>
-      <c r="S19" s="99" t="s">
-        <v>57</v>
+      <c r="S19" s="98" t="s">
+        <v>56</v>
       </c>
       <c r="T19" s="75"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="91"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="88"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="90"/>
     </row>
     <row r="20" spans="1:29" ht="21">
-      <c r="A20" s="92">
+      <c r="A20" s="91">
         <v>225</v>
       </c>
       <c r="B20" s="82">
@@ -3295,57 +3277,57 @@
       </c>
       <c r="D20" s="70"/>
       <c r="E20" s="70"/>
-      <c r="F20" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="95" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93" t="s">
+      <c r="F20" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="M20" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="N20" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="O20" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="98">
+      <c r="N20" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="O20" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97">
         <v>1</v>
       </c>
       <c r="R20" s="73">
         <v>45082</v>
       </c>
-      <c r="S20" s="99" t="s">
-        <v>57</v>
+      <c r="S20" s="98" t="s">
+        <v>56</v>
       </c>
       <c r="T20" s="75"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="91"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="90"/>
     </row>
     <row r="21" spans="1:29" ht="21">
-      <c r="A21" s="92">
+      <c r="A21" s="91">
         <v>226</v>
       </c>
       <c r="B21" s="82">
@@ -3356,57 +3338,57 @@
       </c>
       <c r="D21" s="70"/>
       <c r="E21" s="70"/>
-      <c r="F21" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93" t="s">
+      <c r="F21" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="M21" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="M21" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="N21" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="O21" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="98">
+      <c r="N21" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="O21" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="97">
         <v>1</v>
       </c>
       <c r="R21" s="73">
         <v>45082</v>
       </c>
-      <c r="S21" s="99" t="s">
-        <v>57</v>
+      <c r="S21" s="98" t="s">
+        <v>56</v>
       </c>
       <c r="T21" s="75"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="90"/>
-      <c r="AB21" s="90"/>
-      <c r="AC21" s="91"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="88"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="90"/>
     </row>
     <row r="22" spans="1:29" ht="21">
-      <c r="A22" s="92">
+      <c r="A22" s="91">
         <v>227</v>
       </c>
       <c r="B22" s="82">
@@ -3417,57 +3399,57 @@
       </c>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
-      <c r="F22" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="J22" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93" t="s">
+      <c r="F22" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="M22" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="N22" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="O22" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="98">
+      <c r="N22" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="O22" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97">
         <v>1</v>
       </c>
       <c r="R22" s="73">
         <v>45082</v>
       </c>
-      <c r="S22" s="99" t="s">
-        <v>57</v>
+      <c r="S22" s="98" t="s">
+        <v>56</v>
       </c>
       <c r="T22" s="75"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="90"/>
-      <c r="AC22" s="91"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="90"/>
     </row>
     <row r="23" spans="1:29" ht="21">
-      <c r="A23" s="92">
+      <c r="A23" s="91">
         <v>228</v>
       </c>
       <c r="B23" s="82">
@@ -3482,57 +3464,57 @@
       <c r="E23" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93" t="s">
+      <c r="F23" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="M23" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="N23" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="O23" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="98">
+      <c r="N23" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97">
         <v>1</v>
       </c>
       <c r="R23" s="73">
         <v>45082</v>
       </c>
-      <c r="S23" s="99" t="s">
-        <v>57</v>
+      <c r="S23" s="98" t="s">
+        <v>56</v>
       </c>
       <c r="T23" s="75"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="90"/>
-      <c r="AB23" s="90"/>
-      <c r="AC23" s="91"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="90"/>
     </row>
     <row r="24" spans="1:29" ht="21">
-      <c r="A24" s="92">
+      <c r="A24" s="91">
         <v>229</v>
       </c>
       <c r="B24" s="82">
@@ -3547,54 +3529,54 @@
       <c r="E24" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="93" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="94" t="s">
+      <c r="F24" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="J24" s="95" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93" t="s">
+      <c r="G24" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="M24" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="N24" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="O24" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="98">
+      <c r="N24" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="O24" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97">
         <v>1</v>
       </c>
       <c r="R24" s="73">
         <v>45082</v>
       </c>
-      <c r="S24" s="99" t="s">
-        <v>57</v>
+      <c r="S24" s="98" t="s">
+        <v>56</v>
       </c>
       <c r="T24" s="75"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="90"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="91"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3619,41 +3601,40 @@
     <hyperlink ref="C9" r:id="rId5"/>
     <hyperlink ref="C10" r:id="rId6"/>
     <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="E11" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="E12" r:id="rId12"/>
-    <hyperlink ref="C13" r:id="rId13"/>
-    <hyperlink ref="D13" r:id="rId14"/>
-    <hyperlink ref="E13" r:id="rId15"/>
-    <hyperlink ref="C14" r:id="rId16"/>
-    <hyperlink ref="D14" r:id="rId17"/>
-    <hyperlink ref="E14" r:id="rId18"/>
-    <hyperlink ref="C15" r:id="rId19"/>
-    <hyperlink ref="D15" r:id="rId20"/>
-    <hyperlink ref="E15" r:id="rId21"/>
-    <hyperlink ref="C16" r:id="rId22"/>
-    <hyperlink ref="C17" r:id="rId23"/>
-    <hyperlink ref="D17" r:id="rId24"/>
-    <hyperlink ref="E17" r:id="rId25"/>
-    <hyperlink ref="C18" r:id="rId26"/>
-    <hyperlink ref="D18" r:id="rId27"/>
-    <hyperlink ref="E18" r:id="rId28"/>
-    <hyperlink ref="C19" r:id="rId29"/>
-    <hyperlink ref="D19" r:id="rId30"/>
-    <hyperlink ref="E19" r:id="rId31"/>
-    <hyperlink ref="C20" r:id="rId32"/>
-    <hyperlink ref="C21" r:id="rId33"/>
-    <hyperlink ref="C22" r:id="rId34"/>
-    <hyperlink ref="C23" r:id="rId35"/>
-    <hyperlink ref="D23" r:id="rId36"/>
-    <hyperlink ref="E23" r:id="rId37"/>
-    <hyperlink ref="C24" r:id="rId38"/>
-    <hyperlink ref="D24" r:id="rId39"/>
-    <hyperlink ref="E24" r:id="rId40"/>
+    <hyperlink ref="E11" r:id="rId8"/>
+    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="D12" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="D13" r:id="rId13"/>
+    <hyperlink ref="E13" r:id="rId14"/>
+    <hyperlink ref="C14" r:id="rId15"/>
+    <hyperlink ref="D14" r:id="rId16"/>
+    <hyperlink ref="E14" r:id="rId17"/>
+    <hyperlink ref="C15" r:id="rId18"/>
+    <hyperlink ref="D15" r:id="rId19"/>
+    <hyperlink ref="E15" r:id="rId20"/>
+    <hyperlink ref="C16" r:id="rId21"/>
+    <hyperlink ref="C17" r:id="rId22"/>
+    <hyperlink ref="D17" r:id="rId23"/>
+    <hyperlink ref="E17" r:id="rId24"/>
+    <hyperlink ref="C18" r:id="rId25"/>
+    <hyperlink ref="D18" r:id="rId26"/>
+    <hyperlink ref="E18" r:id="rId27"/>
+    <hyperlink ref="C19" r:id="rId28"/>
+    <hyperlink ref="D19" r:id="rId29"/>
+    <hyperlink ref="E19" r:id="rId30"/>
+    <hyperlink ref="C20" r:id="rId31"/>
+    <hyperlink ref="C21" r:id="rId32"/>
+    <hyperlink ref="C22" r:id="rId33"/>
+    <hyperlink ref="C23" r:id="rId34"/>
+    <hyperlink ref="D23" r:id="rId35"/>
+    <hyperlink ref="E23" r:id="rId36"/>
+    <hyperlink ref="C24" r:id="rId37"/>
+    <hyperlink ref="D24" r:id="rId38"/>
+    <hyperlink ref="E24" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId41"/>
+  <drawing r:id="rId40"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -12,12 +12,15 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$5:$AC$42</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="111">
   <si>
     <t>Ścieżka ===&gt;&gt;</t>
   </si>
@@ -348,7 +351,13 @@
     <t>PRT-A0071267-lustro2</t>
   </si>
   <si>
-    <t>m. Ziętal</t>
+    <t>ziental</t>
+  </si>
+  <si>
+    <t>kwrob</t>
+  </si>
+  <si>
+    <t>goluch</t>
   </si>
 </sst>
 </file>
@@ -622,7 +631,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +703,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="46">
     <border>
@@ -1271,7 +1286,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1612,9 +1627,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1640,6 +1652,28 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2091,10 +2125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2105,7 +2139,7 @@
     <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.90625" customWidth="1"/>
     <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="136.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="57.36328125" bestFit="1" customWidth="1"/>
@@ -2156,24 +2190,24 @@
       <c r="O1" s="11"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="35"/>
-      <c r="R1" s="99" t="s">
+      <c r="R1" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="105" t="s">
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="111" t="s">
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="115" t="s">
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="120" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2197,18 +2231,18 @@
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="36"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="116"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="121"/>
     </row>
     <row r="3" spans="1:29" ht="15" thickTop="1">
       <c r="A3" s="17"/>
@@ -2363,7 +2397,7 @@
     </row>
     <row r="6" spans="1:29" ht="42">
       <c r="A6" s="64">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="B6" s="65">
         <v>45063</v>
@@ -2378,7 +2412,7 @@
         <v>37</v>
       </c>
       <c r="F6" s="67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G6" s="68" t="s">
         <v>38</v>
@@ -2426,20 +2460,20 @@
       <c r="AB6" s="80"/>
       <c r="AC6" s="81"/>
     </row>
-    <row r="7" spans="1:29" ht="35">
+    <row r="7" spans="1:29" ht="23.5">
       <c r="A7" s="64">
-        <v>113</v>
-      </c>
-      <c r="B7" s="65">
+        <v>2</v>
+      </c>
+      <c r="B7" s="100">
         <v>45063</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="67" t="s">
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="98" t="s">
         <v>106</v>
       </c>
       <c r="H7" s="69" t="s">
@@ -2489,7 +2523,7 @@
     </row>
     <row r="8" spans="1:29" ht="42">
       <c r="A8" s="64">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="B8" s="65">
         <v>45063</v>
@@ -2552,7 +2586,7 @@
     </row>
     <row r="9" spans="1:29" ht="23.5">
       <c r="A9" s="64">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="B9" s="65">
         <v>45063</v>
@@ -2615,7 +2649,7 @@
     </row>
     <row r="10" spans="1:29" ht="42">
       <c r="A10" s="64">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="B10" s="65">
         <v>45063</v>
@@ -2676,7 +2710,7 @@
     </row>
     <row r="11" spans="1:29" ht="42">
       <c r="A11" s="64">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="B11" s="65">
         <v>45063</v>
@@ -2689,7 +2723,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G11" s="68" t="s">
         <v>62</v>
@@ -2741,7 +2775,7 @@
     </row>
     <row r="12" spans="1:29" ht="23.5">
       <c r="A12" s="64">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="B12" s="65">
         <v>45063</v>
@@ -2808,7 +2842,7 @@
     </row>
     <row r="13" spans="1:29" ht="42">
       <c r="A13" s="64">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="B13" s="65">
         <v>45063</v>
@@ -2875,7 +2909,7 @@
     </row>
     <row r="14" spans="1:29" ht="42">
       <c r="A14" s="64">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="B14" s="65">
         <v>45063</v>
@@ -2942,7 +2976,7 @@
     </row>
     <row r="15" spans="1:29" ht="23.5">
       <c r="A15" s="64">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="B15" s="65">
         <v>45063</v>
@@ -3009,20 +3043,20 @@
     </row>
     <row r="16" spans="1:29" ht="35">
       <c r="A16" s="64">
-        <v>164</v>
-      </c>
-      <c r="B16" s="82">
+        <v>11</v>
+      </c>
+      <c r="B16" s="103">
         <v>45068</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="67" t="s">
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="83" t="s">
+      <c r="G16" s="98" t="s">
         <v>106</v>
       </c>
       <c r="H16" s="84" t="s">
@@ -3071,8 +3105,8 @@
       <c r="AC16" s="90"/>
     </row>
     <row r="17" spans="1:29" ht="21">
-      <c r="A17" s="91">
-        <v>222</v>
+      <c r="A17" s="64">
+        <v>12</v>
       </c>
       <c r="B17" s="82">
         <v>45079</v>
@@ -3087,45 +3121,45 @@
         <v>37</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="92" t="s">
+      <c r="H17" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="93" t="s">
+      <c r="I17" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="94" t="s">
+      <c r="J17" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92" t="s">
+      <c r="K17" s="91"/>
+      <c r="L17" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="M17" s="92" t="s">
+      <c r="M17" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="93" t="s">
+      <c r="N17" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="O17" s="95" t="s">
+      <c r="O17" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="97">
+      <c r="P17" s="95"/>
+      <c r="Q17" s="96">
         <v>1</v>
       </c>
       <c r="R17" s="73">
         <v>45082</v>
       </c>
-      <c r="S17" s="98" t="s">
+      <c r="S17" s="97" t="s">
         <v>56</v>
       </c>
       <c r="T17" s="75"/>
-      <c r="U17" s="96"/>
+      <c r="U17" s="95"/>
       <c r="V17" s="87"/>
       <c r="W17" s="87"/>
       <c r="X17" s="88"/>
@@ -3136,8 +3170,8 @@
       <c r="AC17" s="90"/>
     </row>
     <row r="18" spans="1:29" ht="21">
-      <c r="A18" s="91">
-        <v>223</v>
+      <c r="A18" s="64">
+        <v>13</v>
       </c>
       <c r="B18" s="82">
         <v>45079</v>
@@ -3152,45 +3186,45 @@
         <v>37</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="92" t="s">
+      <c r="H18" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="93" t="s">
+      <c r="I18" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="94" t="s">
+      <c r="J18" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92" t="s">
+      <c r="K18" s="91"/>
+      <c r="L18" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="92" t="s">
+      <c r="M18" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="N18" s="93" t="s">
+      <c r="N18" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="O18" s="95" t="s">
+      <c r="O18" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="97">
+      <c r="P18" s="95"/>
+      <c r="Q18" s="96">
         <v>1</v>
       </c>
       <c r="R18" s="73">
         <v>45082</v>
       </c>
-      <c r="S18" s="98" t="s">
+      <c r="S18" s="97" t="s">
         <v>56</v>
       </c>
       <c r="T18" s="75"/>
-      <c r="U18" s="96"/>
+      <c r="U18" s="95"/>
       <c r="V18" s="87"/>
       <c r="W18" s="87"/>
       <c r="X18" s="88"/>
@@ -3201,8 +3235,8 @@
       <c r="AC18" s="90"/>
     </row>
     <row r="19" spans="1:29" ht="21">
-      <c r="A19" s="91">
-        <v>224</v>
+      <c r="A19" s="64">
+        <v>14</v>
       </c>
       <c r="B19" s="82">
         <v>45079</v>
@@ -3217,45 +3251,45 @@
         <v>37</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="92" t="s">
+      <c r="H19" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="93" t="s">
+      <c r="I19" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="94" t="s">
+      <c r="J19" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92" t="s">
+      <c r="K19" s="91"/>
+      <c r="L19" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="M19" s="92" t="s">
+      <c r="M19" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="N19" s="93" t="s">
+      <c r="N19" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="O19" s="95" t="s">
+      <c r="O19" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="97">
+      <c r="P19" s="95"/>
+      <c r="Q19" s="96">
         <v>1</v>
       </c>
       <c r="R19" s="73">
         <v>45082</v>
       </c>
-      <c r="S19" s="98" t="s">
+      <c r="S19" s="97" t="s">
         <v>56</v>
       </c>
       <c r="T19" s="75"/>
-      <c r="U19" s="96"/>
+      <c r="U19" s="95"/>
       <c r="V19" s="87"/>
       <c r="W19" s="87"/>
       <c r="X19" s="88"/>
@@ -3266,8 +3300,8 @@
       <c r="AC19" s="90"/>
     </row>
     <row r="20" spans="1:29" ht="21">
-      <c r="A20" s="91">
-        <v>225</v>
+      <c r="A20" s="64">
+        <v>15</v>
       </c>
       <c r="B20" s="82">
         <v>45079</v>
@@ -3278,45 +3312,45 @@
       <c r="D20" s="70"/>
       <c r="E20" s="70"/>
       <c r="F20" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="92" t="s">
+      <c r="H20" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="93" t="s">
+      <c r="I20" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="94" t="s">
+      <c r="J20" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92" t="s">
+      <c r="K20" s="91"/>
+      <c r="L20" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="M20" s="92" t="s">
+      <c r="M20" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="N20" s="93" t="s">
+      <c r="N20" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="O20" s="95" t="s">
+      <c r="O20" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="97">
+      <c r="P20" s="95"/>
+      <c r="Q20" s="96">
         <v>1</v>
       </c>
       <c r="R20" s="73">
         <v>45082</v>
       </c>
-      <c r="S20" s="98" t="s">
+      <c r="S20" s="97" t="s">
         <v>56</v>
       </c>
       <c r="T20" s="75"/>
-      <c r="U20" s="96"/>
+      <c r="U20" s="95"/>
       <c r="V20" s="87"/>
       <c r="W20" s="87"/>
       <c r="X20" s="88"/>
@@ -3327,57 +3361,57 @@
       <c r="AC20" s="90"/>
     </row>
     <row r="21" spans="1:29" ht="21">
-      <c r="A21" s="91">
-        <v>226</v>
-      </c>
-      <c r="B21" s="82">
+      <c r="A21" s="64">
+        <v>16</v>
+      </c>
+      <c r="B21" s="103">
         <v>45079</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="92" t="s">
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="92" t="s">
+      <c r="H21" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="93" t="s">
+      <c r="I21" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="J21" s="94" t="s">
+      <c r="J21" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92" t="s">
+      <c r="K21" s="91"/>
+      <c r="L21" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="M21" s="92" t="s">
+      <c r="M21" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="N21" s="93" t="s">
+      <c r="N21" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="O21" s="95" t="s">
+      <c r="O21" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="97">
+      <c r="P21" s="95"/>
+      <c r="Q21" s="96">
         <v>1</v>
       </c>
       <c r="R21" s="73">
         <v>45082</v>
       </c>
-      <c r="S21" s="98" t="s">
+      <c r="S21" s="97" t="s">
         <v>56</v>
       </c>
       <c r="T21" s="75"/>
-      <c r="U21" s="96"/>
+      <c r="U21" s="95"/>
       <c r="V21" s="87"/>
       <c r="W21" s="87"/>
       <c r="X21" s="88"/>
@@ -3388,8 +3422,8 @@
       <c r="AC21" s="90"/>
     </row>
     <row r="22" spans="1:29" ht="21">
-      <c r="A22" s="91">
-        <v>227</v>
+      <c r="A22" s="64">
+        <v>17</v>
       </c>
       <c r="B22" s="82">
         <v>45079</v>
@@ -3400,45 +3434,45 @@
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
       <c r="F22" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="92" t="s">
+      <c r="H22" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="93" t="s">
+      <c r="I22" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="94" t="s">
+      <c r="J22" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92" t="s">
+      <c r="K22" s="91"/>
+      <c r="L22" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="M22" s="92" t="s">
+      <c r="M22" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="N22" s="93" t="s">
+      <c r="N22" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="O22" s="95" t="s">
+      <c r="O22" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="97">
+      <c r="P22" s="95"/>
+      <c r="Q22" s="96">
         <v>1</v>
       </c>
       <c r="R22" s="73">
         <v>45082</v>
       </c>
-      <c r="S22" s="98" t="s">
+      <c r="S22" s="97" t="s">
         <v>56</v>
       </c>
       <c r="T22" s="75"/>
-      <c r="U22" s="96"/>
+      <c r="U22" s="95"/>
       <c r="V22" s="87"/>
       <c r="W22" s="87"/>
       <c r="X22" s="88"/>
@@ -3449,8 +3483,8 @@
       <c r="AC22" s="90"/>
     </row>
     <row r="23" spans="1:29" ht="21">
-      <c r="A23" s="91">
-        <v>228</v>
+      <c r="A23" s="64">
+        <v>18</v>
       </c>
       <c r="B23" s="82">
         <v>45079</v>
@@ -3465,45 +3499,45 @@
         <v>37</v>
       </c>
       <c r="F23" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="92" t="s">
+      <c r="H23" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="93" t="s">
+      <c r="I23" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="94" t="s">
+      <c r="J23" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92" t="s">
+      <c r="K23" s="91"/>
+      <c r="L23" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="M23" s="92" t="s">
+      <c r="M23" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="N23" s="93" t="s">
+      <c r="N23" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="O23" s="95" t="s">
+      <c r="O23" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="97">
+      <c r="P23" s="95"/>
+      <c r="Q23" s="96">
         <v>1</v>
       </c>
       <c r="R23" s="73">
         <v>45082</v>
       </c>
-      <c r="S23" s="98" t="s">
+      <c r="S23" s="97" t="s">
         <v>56</v>
       </c>
       <c r="T23" s="75"/>
-      <c r="U23" s="96"/>
+      <c r="U23" s="95"/>
       <c r="V23" s="87"/>
       <c r="W23" s="87"/>
       <c r="X23" s="88"/>
@@ -3514,8 +3548,8 @@
       <c r="AC23" s="90"/>
     </row>
     <row r="24" spans="1:29" ht="21">
-      <c r="A24" s="91">
-        <v>229</v>
+      <c r="A24" s="64">
+        <v>19</v>
       </c>
       <c r="B24" s="82">
         <v>45079</v>
@@ -3530,45 +3564,45 @@
         <v>37</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="92" t="s">
+      <c r="H24" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="93" t="s">
+      <c r="I24" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="J24" s="94" t="s">
+      <c r="J24" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92" t="s">
+      <c r="K24" s="91"/>
+      <c r="L24" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="M24" s="92" t="s">
+      <c r="M24" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="N24" s="93" t="s">
+      <c r="N24" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="95" t="s">
+      <c r="O24" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="97">
+      <c r="P24" s="95"/>
+      <c r="Q24" s="96">
         <v>1</v>
       </c>
       <c r="R24" s="73">
         <v>45082</v>
       </c>
-      <c r="S24" s="98" t="s">
+      <c r="S24" s="97" t="s">
         <v>56</v>
       </c>
       <c r="T24" s="75"/>
-      <c r="U24" s="96"/>
+      <c r="U24" s="95"/>
       <c r="V24" s="87"/>
       <c r="W24" s="87"/>
       <c r="X24" s="88"/>
@@ -3577,6 +3611,1339 @@
       <c r="AA24" s="89"/>
       <c r="AB24" s="89"/>
       <c r="AC24" s="90"/>
+    </row>
+    <row r="25" spans="1:29" ht="35">
+      <c r="A25" s="64">
+        <v>20</v>
+      </c>
+      <c r="B25" s="103">
+        <v>45068</v>
+      </c>
+      <c r="C25" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="72">
+        <v>1</v>
+      </c>
+      <c r="R25" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S25" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="T25" s="75"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="90"/>
+    </row>
+    <row r="26" spans="1:29" ht="21">
+      <c r="A26" s="64">
+        <v>21</v>
+      </c>
+      <c r="B26" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O26" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="96">
+        <v>1</v>
+      </c>
+      <c r="R26" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S26" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T26" s="75"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="90"/>
+    </row>
+    <row r="27" spans="1:29" ht="21">
+      <c r="A27" s="64">
+        <v>22</v>
+      </c>
+      <c r="B27" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M27" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O27" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="96">
+        <v>1</v>
+      </c>
+      <c r="R27" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S27" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T27" s="75"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="90"/>
+    </row>
+    <row r="28" spans="1:29" ht="21">
+      <c r="A28" s="64">
+        <v>23</v>
+      </c>
+      <c r="B28" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O28" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="96">
+        <v>1</v>
+      </c>
+      <c r="R28" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S28" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T28" s="75"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="90"/>
+    </row>
+    <row r="29" spans="1:29" ht="21">
+      <c r="A29" s="64">
+        <v>24</v>
+      </c>
+      <c r="B29" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M29" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="96">
+        <v>1</v>
+      </c>
+      <c r="R29" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S29" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T29" s="75"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="89"/>
+      <c r="AC29" s="90"/>
+    </row>
+    <row r="30" spans="1:29" ht="21">
+      <c r="A30" s="64">
+        <v>25</v>
+      </c>
+      <c r="B30" s="103">
+        <v>45079</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M30" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O30" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="96">
+        <v>1</v>
+      </c>
+      <c r="R30" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S30" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T30" s="75"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="90"/>
+    </row>
+    <row r="31" spans="1:29" ht="21">
+      <c r="A31" s="64">
+        <v>26</v>
+      </c>
+      <c r="B31" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M31" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N31" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O31" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="96">
+        <v>1</v>
+      </c>
+      <c r="R31" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S31" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T31" s="75"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="88"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="90"/>
+    </row>
+    <row r="32" spans="1:29" ht="21">
+      <c r="A32" s="64">
+        <v>27</v>
+      </c>
+      <c r="B32" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M32" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N32" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="96">
+        <v>1</v>
+      </c>
+      <c r="R32" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S32" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T32" s="75"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="90"/>
+    </row>
+    <row r="33" spans="1:29" ht="21">
+      <c r="A33" s="64">
+        <v>28</v>
+      </c>
+      <c r="B33" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M33" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N33" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O33" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="96">
+        <v>1</v>
+      </c>
+      <c r="R33" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S33" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T33" s="75"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="88"/>
+      <c r="AA33" s="89"/>
+      <c r="AB33" s="89"/>
+      <c r="AC33" s="90"/>
+    </row>
+    <row r="34" spans="1:29" ht="35">
+      <c r="A34" s="64">
+        <v>29</v>
+      </c>
+      <c r="B34" s="103">
+        <v>45068</v>
+      </c>
+      <c r="C34" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="L34" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="M34" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="O34" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="72">
+        <v>1</v>
+      </c>
+      <c r="R34" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S34" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="T34" s="75"/>
+      <c r="U34" s="76"/>
+      <c r="V34" s="86"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="88"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="88"/>
+      <c r="AA34" s="89"/>
+      <c r="AB34" s="89"/>
+      <c r="AC34" s="90"/>
+    </row>
+    <row r="35" spans="1:29" ht="21">
+      <c r="A35" s="64">
+        <v>30</v>
+      </c>
+      <c r="B35" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M35" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N35" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O35" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="96">
+        <v>1</v>
+      </c>
+      <c r="R35" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S35" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T35" s="75"/>
+      <c r="U35" s="95"/>
+      <c r="V35" s="87"/>
+      <c r="W35" s="87"/>
+      <c r="X35" s="88"/>
+      <c r="Y35" s="88"/>
+      <c r="Z35" s="88"/>
+      <c r="AA35" s="89"/>
+      <c r="AB35" s="89"/>
+      <c r="AC35" s="90"/>
+    </row>
+    <row r="36" spans="1:29" ht="21">
+      <c r="A36" s="64">
+        <v>31</v>
+      </c>
+      <c r="B36" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M36" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N36" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O36" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="96">
+        <v>1</v>
+      </c>
+      <c r="R36" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S36" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T36" s="75"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="87"/>
+      <c r="W36" s="87"/>
+      <c r="X36" s="88"/>
+      <c r="Y36" s="88"/>
+      <c r="Z36" s="88"/>
+      <c r="AA36" s="89"/>
+      <c r="AB36" s="89"/>
+      <c r="AC36" s="90"/>
+    </row>
+    <row r="37" spans="1:29" ht="21">
+      <c r="A37" s="64">
+        <v>32</v>
+      </c>
+      <c r="B37" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="J37" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M37" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N37" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O37" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="96">
+        <v>1</v>
+      </c>
+      <c r="R37" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S37" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T37" s="75"/>
+      <c r="U37" s="95"/>
+      <c r="V37" s="87"/>
+      <c r="W37" s="87"/>
+      <c r="X37" s="88"/>
+      <c r="Y37" s="88"/>
+      <c r="Z37" s="88"/>
+      <c r="AA37" s="89"/>
+      <c r="AB37" s="89"/>
+      <c r="AC37" s="90"/>
+    </row>
+    <row r="38" spans="1:29" ht="21">
+      <c r="A38" s="64">
+        <v>33</v>
+      </c>
+      <c r="B38" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="J38" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M38" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N38" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O38" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="96">
+        <v>1</v>
+      </c>
+      <c r="R38" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S38" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T38" s="75"/>
+      <c r="U38" s="95"/>
+      <c r="V38" s="87"/>
+      <c r="W38" s="87"/>
+      <c r="X38" s="88"/>
+      <c r="Y38" s="88"/>
+      <c r="Z38" s="88"/>
+      <c r="AA38" s="89"/>
+      <c r="AB38" s="89"/>
+      <c r="AC38" s="90"/>
+    </row>
+    <row r="39" spans="1:29" ht="21">
+      <c r="A39" s="64">
+        <v>34</v>
+      </c>
+      <c r="B39" s="103">
+        <v>45079</v>
+      </c>
+      <c r="C39" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M39" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N39" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O39" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="96">
+        <v>1</v>
+      </c>
+      <c r="R39" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S39" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T39" s="75"/>
+      <c r="U39" s="95"/>
+      <c r="V39" s="87"/>
+      <c r="W39" s="87"/>
+      <c r="X39" s="88"/>
+      <c r="Y39" s="88"/>
+      <c r="Z39" s="88"/>
+      <c r="AA39" s="89"/>
+      <c r="AB39" s="89"/>
+      <c r="AC39" s="90"/>
+    </row>
+    <row r="40" spans="1:29" ht="21">
+      <c r="A40" s="64">
+        <v>35</v>
+      </c>
+      <c r="B40" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M40" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N40" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O40" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="96">
+        <v>1</v>
+      </c>
+      <c r="R40" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S40" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T40" s="75"/>
+      <c r="U40" s="95"/>
+      <c r="V40" s="87"/>
+      <c r="W40" s="87"/>
+      <c r="X40" s="88"/>
+      <c r="Y40" s="88"/>
+      <c r="Z40" s="88"/>
+      <c r="AA40" s="89"/>
+      <c r="AB40" s="89"/>
+      <c r="AC40" s="90"/>
+    </row>
+    <row r="41" spans="1:29" ht="21">
+      <c r="A41" s="64">
+        <v>36</v>
+      </c>
+      <c r="B41" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="J41" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="K41" s="91"/>
+      <c r="L41" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M41" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N41" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O41" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="96">
+        <v>1</v>
+      </c>
+      <c r="R41" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S41" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T41" s="75"/>
+      <c r="U41" s="95"/>
+      <c r="V41" s="87"/>
+      <c r="W41" s="87"/>
+      <c r="X41" s="88"/>
+      <c r="Y41" s="88"/>
+      <c r="Z41" s="88"/>
+      <c r="AA41" s="89"/>
+      <c r="AB41" s="89"/>
+      <c r="AC41" s="90"/>
+    </row>
+    <row r="42" spans="1:29" ht="21">
+      <c r="A42" s="64">
+        <v>37</v>
+      </c>
+      <c r="B42" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C42" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="J42" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="K42" s="91"/>
+      <c r="L42" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M42" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N42" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O42" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="96">
+        <v>1</v>
+      </c>
+      <c r="R42" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S42" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T42" s="75"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="87"/>
+      <c r="W42" s="87"/>
+      <c r="X42" s="88"/>
+      <c r="Y42" s="88"/>
+      <c r="Z42" s="88"/>
+      <c r="AA42" s="89"/>
+      <c r="AB42" s="89"/>
+      <c r="AC42" s="90"/>
+    </row>
+    <row r="43" spans="1:29" ht="21">
+      <c r="A43" s="64">
+        <v>38</v>
+      </c>
+      <c r="B43" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="K43" s="91"/>
+      <c r="L43" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M43" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N43" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O43" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="96">
+        <v>1</v>
+      </c>
+      <c r="R43" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S43" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T43" s="75"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="87"/>
+      <c r="W43" s="87"/>
+      <c r="X43" s="88"/>
+      <c r="Y43" s="88"/>
+      <c r="Z43" s="88"/>
+      <c r="AA43" s="89"/>
+      <c r="AB43" s="89"/>
+      <c r="AC43" s="90"/>
+    </row>
+    <row r="44" spans="1:29" ht="21">
+      <c r="A44" s="64">
+        <v>39</v>
+      </c>
+      <c r="B44" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C44" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="K44" s="91"/>
+      <c r="L44" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M44" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N44" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O44" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="96">
+        <v>1</v>
+      </c>
+      <c r="R44" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S44" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T44" s="75"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="87"/>
+      <c r="W44" s="87"/>
+      <c r="X44" s="88"/>
+      <c r="Y44" s="88"/>
+      <c r="Z44" s="88"/>
+      <c r="AA44" s="89"/>
+      <c r="AB44" s="89"/>
+      <c r="AC44" s="90"/>
+    </row>
+    <row r="45" spans="1:29" ht="21">
+      <c r="A45" s="64">
+        <v>40</v>
+      </c>
+      <c r="B45" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C45" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="J45" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="K45" s="91"/>
+      <c r="L45" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M45" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N45" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="O45" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="96">
+        <v>1</v>
+      </c>
+      <c r="R45" s="73">
+        <v>45082</v>
+      </c>
+      <c r="S45" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="T45" s="75"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="87"/>
+      <c r="W45" s="87"/>
+      <c r="X45" s="88"/>
+      <c r="Y45" s="88"/>
+      <c r="Z45" s="88"/>
+      <c r="AA45" s="89"/>
+      <c r="AB45" s="89"/>
+      <c r="AC45" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3633,8 +5000,53 @@
     <hyperlink ref="C24" r:id="rId37"/>
     <hyperlink ref="D24" r:id="rId38"/>
     <hyperlink ref="E24" r:id="rId39"/>
+    <hyperlink ref="C25" r:id="rId40"/>
+    <hyperlink ref="C26" r:id="rId41"/>
+    <hyperlink ref="D26" r:id="rId42"/>
+    <hyperlink ref="E26" r:id="rId43"/>
+    <hyperlink ref="C27" r:id="rId44"/>
+    <hyperlink ref="D27" r:id="rId45"/>
+    <hyperlink ref="E27" r:id="rId46"/>
+    <hyperlink ref="C28" r:id="rId47"/>
+    <hyperlink ref="D28" r:id="rId48"/>
+    <hyperlink ref="E28" r:id="rId49"/>
+    <hyperlink ref="C29" r:id="rId50"/>
+    <hyperlink ref="C30" r:id="rId51"/>
+    <hyperlink ref="C31" r:id="rId52"/>
+    <hyperlink ref="C32" r:id="rId53"/>
+    <hyperlink ref="D32" r:id="rId54"/>
+    <hyperlink ref="E32" r:id="rId55"/>
+    <hyperlink ref="C33" r:id="rId56"/>
+    <hyperlink ref="D33" r:id="rId57"/>
+    <hyperlink ref="E33" r:id="rId58"/>
+    <hyperlink ref="C34" r:id="rId59"/>
+    <hyperlink ref="C35" r:id="rId60"/>
+    <hyperlink ref="D35" r:id="rId61"/>
+    <hyperlink ref="E35" r:id="rId62"/>
+    <hyperlink ref="C36" r:id="rId63"/>
+    <hyperlink ref="D36" r:id="rId64"/>
+    <hyperlink ref="E36" r:id="rId65"/>
+    <hyperlink ref="C37" r:id="rId66"/>
+    <hyperlink ref="D37" r:id="rId67"/>
+    <hyperlink ref="E37" r:id="rId68"/>
+    <hyperlink ref="C38" r:id="rId69"/>
+    <hyperlink ref="C39" r:id="rId70"/>
+    <hyperlink ref="C40" r:id="rId71"/>
+    <hyperlink ref="C41" r:id="rId72"/>
+    <hyperlink ref="D41" r:id="rId73"/>
+    <hyperlink ref="E41" r:id="rId74"/>
+    <hyperlink ref="C42" r:id="rId75"/>
+    <hyperlink ref="D42" r:id="rId76"/>
+    <hyperlink ref="E42" r:id="rId77"/>
+    <hyperlink ref="C43" r:id="rId78"/>
+    <hyperlink ref="C44" r:id="rId79"/>
+    <hyperlink ref="D44" r:id="rId80"/>
+    <hyperlink ref="E44" r:id="rId81"/>
+    <hyperlink ref="C45" r:id="rId82"/>
+    <hyperlink ref="D45" r:id="rId83"/>
+    <hyperlink ref="E45" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId40"/>
+  <drawing r:id="rId85"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -351,13 +351,13 @@
     <t>PRT-A0071267-lustro2</t>
   </si>
   <si>
-    <t>ziental</t>
-  </si>
-  <si>
-    <t>kwrob</t>
-  </si>
-  <si>
-    <t>goluch</t>
+    <t>M. Gołuch</t>
+  </si>
+  <si>
+    <t>M. Ziętal</t>
+  </si>
+  <si>
+    <t>K. Wróblewski</t>
   </si>
 </sst>
 </file>
@@ -2128,7 +2128,7 @@
   <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2138,7 +2138,7 @@
     <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6328125" customWidth="1"/>
     <col min="7" max="7" width="60.90625" customWidth="1"/>
     <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="136.54296875" bestFit="1" customWidth="1"/>
@@ -2412,7 +2412,7 @@
         <v>37</v>
       </c>
       <c r="F6" s="67" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G6" s="68" t="s">
         <v>38</v>
@@ -2471,7 +2471,7 @@
       <c r="D7" s="101"/>
       <c r="E7" s="101"/>
       <c r="F7" s="102" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G7" s="98" t="s">
         <v>106</v>
@@ -2534,7 +2534,7 @@
       <c r="D8" s="70"/>
       <c r="E8" s="70"/>
       <c r="F8" s="67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G8" s="68" t="s">
         <v>50</v>
@@ -2659,8 +2659,8 @@
       </c>
       <c r="D10" s="70"/>
       <c r="E10" s="70"/>
-      <c r="F10" s="67" t="s">
-        <v>108</v>
+      <c r="F10" s="102" t="s">
+        <v>109</v>
       </c>
       <c r="G10" s="68" t="s">
         <v>57</v>
@@ -2723,7 +2723,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="67" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G11" s="68" t="s">
         <v>62</v>
@@ -2856,8 +2856,8 @@
       <c r="E13" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="67" t="s">
-        <v>108</v>
+      <c r="F13" s="102" t="s">
+        <v>109</v>
       </c>
       <c r="G13" s="68" t="s">
         <v>68</v>
@@ -2924,7 +2924,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G14" s="68" t="s">
         <v>73</v>
@@ -3054,7 +3054,7 @@
       <c r="D16" s="101"/>
       <c r="E16" s="101"/>
       <c r="F16" s="102" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="98" t="s">
         <v>106</v>
@@ -3121,7 +3121,7 @@
         <v>37</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G17" s="91" t="s">
         <v>82</v>
@@ -3186,7 +3186,7 @@
         <v>37</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G18" s="91" t="s">
         <v>86</v>
@@ -3250,7 +3250,7 @@
       <c r="E19" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="102" t="s">
         <v>109</v>
       </c>
       <c r="G19" s="91" t="s">
@@ -3312,7 +3312,7 @@
       <c r="D20" s="70"/>
       <c r="E20" s="70"/>
       <c r="F20" s="67" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G20" s="91" t="s">
         <v>92</v>
@@ -3372,8 +3372,8 @@
       </c>
       <c r="D21" s="101"/>
       <c r="E21" s="101"/>
-      <c r="F21" s="102" t="s">
-        <v>109</v>
+      <c r="F21" s="67" t="s">
+        <v>108</v>
       </c>
       <c r="G21" s="99" t="s">
         <v>107</v>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="102" t="s">
         <v>109</v>
       </c>
       <c r="G22" s="91" t="s">
@@ -3499,7 +3499,7 @@
         <v>37</v>
       </c>
       <c r="F23" s="67" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G23" s="91" t="s">
         <v>100</v>
@@ -3564,7 +3564,7 @@
         <v>37</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" s="91" t="s">
         <v>103</v>
@@ -3692,7 +3692,7 @@
         <v>37</v>
       </c>
       <c r="F26" s="67" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G26" s="91" t="s">
         <v>82</v>
@@ -3757,7 +3757,7 @@
         <v>37</v>
       </c>
       <c r="F27" s="67" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G27" s="91" t="s">
         <v>86</v>
@@ -3821,8 +3821,8 @@
       <c r="E28" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="67" t="s">
-        <v>110</v>
+      <c r="F28" s="102" t="s">
+        <v>109</v>
       </c>
       <c r="G28" s="91" t="s">
         <v>89</v>
@@ -3943,8 +3943,8 @@
       </c>
       <c r="D30" s="101"/>
       <c r="E30" s="101"/>
-      <c r="F30" s="102" t="s">
-        <v>110</v>
+      <c r="F30" s="67" t="s">
+        <v>108</v>
       </c>
       <c r="G30" s="99" t="s">
         <v>107</v>
@@ -4004,8 +4004,8 @@
       </c>
       <c r="D31" s="70"/>
       <c r="E31" s="70"/>
-      <c r="F31" s="67" t="s">
-        <v>110</v>
+      <c r="F31" s="102" t="s">
+        <v>109</v>
       </c>
       <c r="G31" s="91" t="s">
         <v>97</v>
@@ -4135,7 +4135,7 @@
         <v>37</v>
       </c>
       <c r="F33" s="67" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G33" s="91" t="s">
         <v>103</v>
@@ -4196,7 +4196,7 @@
       <c r="D34" s="101"/>
       <c r="E34" s="101"/>
       <c r="F34" s="102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G34" s="98" t="s">
         <v>106</v>
@@ -4328,7 +4328,7 @@
         <v>37</v>
       </c>
       <c r="F36" s="67" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G36" s="91" t="s">
         <v>86</v>
@@ -4392,8 +4392,8 @@
       <c r="E37" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="67" t="s">
-        <v>110</v>
+      <c r="F37" s="102" t="s">
+        <v>109</v>
       </c>
       <c r="G37" s="91" t="s">
         <v>89</v>
@@ -4454,7 +4454,7 @@
       <c r="D38" s="70"/>
       <c r="E38" s="70"/>
       <c r="F38" s="67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G38" s="91" t="s">
         <v>92</v>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="D39" s="101"/>
       <c r="E39" s="101"/>
-      <c r="F39" s="102" t="s">
+      <c r="F39" s="67" t="s">
         <v>108</v>
       </c>
       <c r="G39" s="99" t="s">
@@ -4575,8 +4575,8 @@
       </c>
       <c r="D40" s="70"/>
       <c r="E40" s="70"/>
-      <c r="F40" s="67" t="s">
-        <v>108</v>
+      <c r="F40" s="102" t="s">
+        <v>109</v>
       </c>
       <c r="G40" s="91" t="s">
         <v>97</v>
@@ -4641,7 +4641,7 @@
         <v>37</v>
       </c>
       <c r="F41" s="67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G41" s="91" t="s">
         <v>100</v>
@@ -4706,7 +4706,7 @@
         <v>37</v>
       </c>
       <c r="F42" s="67" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G42" s="91" t="s">
         <v>103</v>
@@ -4766,8 +4766,8 @@
       </c>
       <c r="D43" s="70"/>
       <c r="E43" s="70"/>
-      <c r="F43" s="67" t="s">
-        <v>108</v>
+      <c r="F43" s="102" t="s">
+        <v>109</v>
       </c>
       <c r="G43" s="91" t="s">
         <v>97</v>
@@ -4832,7 +4832,7 @@
         <v>37</v>
       </c>
       <c r="F44" s="67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G44" s="91" t="s">
         <v>100</v>
@@ -4897,7 +4897,7 @@
         <v>37</v>
       </c>
       <c r="F45" s="67" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G45" s="91" t="s">
         <v>103</v>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="115">
   <si>
     <t>Ścieżka ===&gt;&gt;</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Osoba kupująca</t>
   </si>
   <si>
-    <t>Numer zamówienia</t>
-  </si>
-  <si>
     <t>DOSTAWCA</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>STEP</t>
   </si>
   <si>
-    <t>PRT-A0071721</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -177,18 +171,12 @@
     <t>-</t>
   </si>
   <si>
-    <t>PRT-A0068775</t>
-  </si>
-  <si>
     <t>Gniazdo sprężyny lewej</t>
   </si>
   <si>
     <t>2011-400-PRT-A0068775-A-Gniazdo sprężyny lewej</t>
   </si>
   <si>
-    <t>PRT-A0068774</t>
-  </si>
-  <si>
     <t>Dźwignia lewa</t>
   </si>
   <si>
@@ -198,9 +186,6 @@
     <t>PCz</t>
   </si>
   <si>
-    <t>PRT-A0069184</t>
-  </si>
-  <si>
     <t>Listwa sprężyny prawa 2</t>
   </si>
   <si>
@@ -358,6 +343,33 @@
   </si>
   <si>
     <t>K. Wróblewski</t>
+  </si>
+  <si>
+    <t>sample1-PRT-A0071721</t>
+  </si>
+  <si>
+    <t>sample1-PRT-A0070434-LUSTRO</t>
+  </si>
+  <si>
+    <t>sample1-PRT-A0068775</t>
+  </si>
+  <si>
+    <t>sample1-RT-A0068774</t>
+  </si>
+  <si>
+    <t>sample1-PRT-A0069184</t>
+  </si>
+  <si>
+    <t>saple1 zamowienie</t>
+  </si>
+  <si>
+    <t>zamowienie-kupa</t>
+  </si>
+  <si>
+    <t>dostawca</t>
+  </si>
+  <si>
+    <t>Numer zamówienia</t>
   </si>
 </sst>
 </file>
@@ -2127,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2365,31 +2377,31 @@
         <v>25</v>
       </c>
       <c r="T5" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="U5" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="57" t="s">
+      <c r="V5" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="57" t="s">
+      <c r="W5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="58" t="s">
+      <c r="X5" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="59" t="s">
+      <c r="Y5" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="Y5" s="60" t="s">
+      <c r="Z5" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="Z5" s="61" t="s">
+      <c r="AA5" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="AA5" s="62" t="s">
+      <c r="AB5" s="61" t="s">
         <v>33</v>
-      </c>
-      <c r="AB5" s="61" t="s">
-        <v>34</v>
       </c>
       <c r="AC5" s="63" t="s">
         <v>22</v>
@@ -2403,41 +2415,41 @@
         <v>45063</v>
       </c>
       <c r="C6" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="E6" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="F6" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="68" t="s">
+      <c r="I6" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="J6" s="69" t="s">
         <v>39</v>
-      </c>
-      <c r="I6" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>41</v>
       </c>
       <c r="K6" s="69"/>
       <c r="L6" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="68" t="s">
+      <c r="O6" s="68" t="s">
         <v>43</v>
-      </c>
-      <c r="N6" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="68" t="s">
-        <v>45</v>
       </c>
       <c r="P6" s="71"/>
       <c r="Q6" s="72">
@@ -2447,10 +2459,12 @@
         <v>45082</v>
       </c>
       <c r="S6" s="74" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T6" s="75"/>
-      <c r="U6" s="76"/>
+      <c r="U6" s="76" t="s">
+        <v>113</v>
+      </c>
       <c r="V6" s="77"/>
       <c r="W6" s="78"/>
       <c r="X6" s="78"/>
@@ -2471,34 +2485,34 @@
       <c r="D7" s="101"/>
       <c r="E7" s="101"/>
       <c r="F7" s="102" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G7" s="98" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H7" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="68" t="s">
+      <c r="K7" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="69" t="s">
-        <v>49</v>
-      </c>
       <c r="L7" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="O7" s="68" t="s">
         <v>43</v>
-      </c>
-      <c r="N7" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="68" t="s">
-        <v>45</v>
       </c>
       <c r="P7" s="71"/>
       <c r="Q7" s="72">
@@ -2508,7 +2522,7 @@
         <v>45082</v>
       </c>
       <c r="S7" s="74" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T7" s="75"/>
       <c r="U7" s="76"/>
@@ -2529,39 +2543,39 @@
         <v>45063</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="70"/>
       <c r="E8" s="70"/>
       <c r="F8" s="67" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G8" s="68" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="68" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K8" s="69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L8" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="68" t="s">
+      <c r="O8" s="68" t="s">
         <v>43</v>
-      </c>
-      <c r="N8" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="68" t="s">
-        <v>45</v>
       </c>
       <c r="P8" s="71"/>
       <c r="Q8" s="72">
@@ -2571,7 +2585,7 @@
         <v>45082</v>
       </c>
       <c r="S8" s="74" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T8" s="75"/>
       <c r="U8" s="76"/>
@@ -2584,7 +2598,7 @@
       <c r="AB8" s="80"/>
       <c r="AC8" s="81"/>
     </row>
-    <row r="9" spans="1:29" ht="23.5">
+    <row r="9" spans="1:29" ht="40">
       <c r="A9" s="64">
         <v>4</v>
       </c>
@@ -2592,39 +2606,39 @@
         <v>45063</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="70"/>
       <c r="E9" s="70"/>
       <c r="F9" s="67" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9" s="68" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J9" s="69" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K9" s="69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L9" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="68" t="s">
+      <c r="O9" s="68" t="s">
         <v>43</v>
-      </c>
-      <c r="N9" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" s="68" t="s">
-        <v>45</v>
       </c>
       <c r="P9" s="71"/>
       <c r="Q9" s="72">
@@ -2634,9 +2648,11 @@
         <v>45082</v>
       </c>
       <c r="S9" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="T9" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T9" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U9" s="76"/>
       <c r="V9" s="77"/>
       <c r="W9" s="78"/>
@@ -2655,37 +2671,37 @@
         <v>45063</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="70"/>
       <c r="E10" s="70"/>
       <c r="F10" s="102" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J10" s="69" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K10" s="69"/>
       <c r="L10" s="68" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M10" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="68" t="s">
         <v>43</v>
-      </c>
-      <c r="N10" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="O10" s="68" t="s">
-        <v>45</v>
       </c>
       <c r="P10" s="71"/>
       <c r="Q10" s="72">
@@ -2695,9 +2711,11 @@
         <v>45082</v>
       </c>
       <c r="S10" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="T10" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T10" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U10" s="76"/>
       <c r="V10" s="77"/>
       <c r="W10" s="78"/>
@@ -2716,41 +2734,41 @@
         <v>45063</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="70"/>
       <c r="E11" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="69" t="s">
-        <v>39</v>
-      </c>
       <c r="I11" s="68" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J11" s="69" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K11" s="69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L11" s="68" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M11" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="68" t="s">
         <v>43</v>
-      </c>
-      <c r="N11" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="O11" s="68" t="s">
-        <v>45</v>
       </c>
       <c r="P11" s="71"/>
       <c r="Q11" s="72">
@@ -2760,9 +2778,11 @@
         <v>45082</v>
       </c>
       <c r="S11" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="T11" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T11" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U11" s="76"/>
       <c r="V11" s="77"/>
       <c r="W11" s="78"/>
@@ -2773,7 +2793,7 @@
       <c r="AB11" s="80"/>
       <c r="AC11" s="81"/>
     </row>
-    <row r="12" spans="1:29" ht="23.5">
+    <row r="12" spans="1:29" ht="40">
       <c r="A12" s="64">
         <v>7</v>
       </c>
@@ -2781,43 +2801,43 @@
         <v>45063</v>
       </c>
       <c r="C12" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="E12" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="F12" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="69" t="s">
-        <v>39</v>
-      </c>
       <c r="I12" s="68" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J12" s="69" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K12" s="69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L12" s="68" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M12" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="68" t="s">
         <v>43</v>
-      </c>
-      <c r="N12" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="68" t="s">
-        <v>45</v>
       </c>
       <c r="P12" s="71"/>
       <c r="Q12" s="72">
@@ -2827,9 +2847,11 @@
         <v>45082</v>
       </c>
       <c r="S12" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="T12" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T12" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U12" s="76"/>
       <c r="V12" s="77"/>
       <c r="W12" s="78"/>
@@ -2848,43 +2870,43 @@
         <v>45063</v>
       </c>
       <c r="C13" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="E13" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="F13" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="69" t="s">
-        <v>39</v>
-      </c>
       <c r="I13" s="68" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K13" s="69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L13" s="68" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M13" s="68" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N13" s="68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O13" s="68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P13" s="71"/>
       <c r="Q13" s="72">
@@ -2894,9 +2916,11 @@
         <v>45082</v>
       </c>
       <c r="S13" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="T13" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T13" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U13" s="76"/>
       <c r="V13" s="77"/>
       <c r="W13" s="78"/>
@@ -2915,43 +2939,43 @@
         <v>45063</v>
       </c>
       <c r="C14" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="E14" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="F14" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="69" t="s">
-        <v>39</v>
-      </c>
       <c r="I14" s="68" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K14" s="69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L14" s="68" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M14" s="68" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N14" s="68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O14" s="68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P14" s="71"/>
       <c r="Q14" s="72">
@@ -2961,9 +2985,11 @@
         <v>45082</v>
       </c>
       <c r="S14" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="T14" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T14" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U14" s="76"/>
       <c r="V14" s="77"/>
       <c r="W14" s="78"/>
@@ -2974,7 +3000,7 @@
       <c r="AB14" s="80"/>
       <c r="AC14" s="81"/>
     </row>
-    <row r="15" spans="1:29" ht="23.5">
+    <row r="15" spans="1:29" ht="40">
       <c r="A15" s="64">
         <v>10</v>
       </c>
@@ -2982,43 +3008,43 @@
         <v>45063</v>
       </c>
       <c r="C15" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="E15" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="F15" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="69" t="s">
-        <v>39</v>
-      </c>
       <c r="I15" s="68" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K15" s="69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L15" s="68" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M15" s="68" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N15" s="68" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="O15" s="68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P15" s="71"/>
       <c r="Q15" s="72">
@@ -3028,9 +3054,11 @@
         <v>45082</v>
       </c>
       <c r="S15" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="T15" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T15" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U15" s="76"/>
       <c r="V15" s="77"/>
       <c r="W15" s="78"/>
@@ -3041,7 +3069,7 @@
       <c r="AB15" s="80"/>
       <c r="AC15" s="81"/>
     </row>
-    <row r="16" spans="1:29" ht="35">
+    <row r="16" spans="1:29" ht="40">
       <c r="A16" s="64">
         <v>11</v>
       </c>
@@ -3049,39 +3077,39 @@
         <v>45068</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="101"/>
       <c r="E16" s="101"/>
       <c r="F16" s="102" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G16" s="98" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I16" s="83" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J16" s="84" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K16" s="84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L16" s="83" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M16" s="83" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N16" s="83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P16" s="85"/>
       <c r="Q16" s="72">
@@ -3091,9 +3119,11 @@
         <v>45082</v>
       </c>
       <c r="S16" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="T16" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T16" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U16" s="76"/>
       <c r="V16" s="86"/>
       <c r="W16" s="87"/>
@@ -3104,7 +3134,7 @@
       <c r="AB16" s="89"/>
       <c r="AC16" s="90"/>
     </row>
-    <row r="17" spans="1:29" ht="21">
+    <row r="17" spans="1:29" ht="40">
       <c r="A17" s="64">
         <v>12</v>
       </c>
@@ -3112,41 +3142,41 @@
         <v>45079</v>
       </c>
       <c r="C17" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="E17" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="F17" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I17" s="92" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J17" s="93" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K17" s="91"/>
       <c r="L17" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M17" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N17" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O17" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P17" s="95"/>
       <c r="Q17" s="96">
@@ -3156,9 +3186,11 @@
         <v>45082</v>
       </c>
       <c r="S17" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T17" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T17" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U17" s="95"/>
       <c r="V17" s="87"/>
       <c r="W17" s="87"/>
@@ -3169,7 +3201,7 @@
       <c r="AB17" s="89"/>
       <c r="AC17" s="90"/>
     </row>
-    <row r="18" spans="1:29" ht="21">
+    <row r="18" spans="1:29" ht="40">
       <c r="A18" s="64">
         <v>13</v>
       </c>
@@ -3177,41 +3209,41 @@
         <v>45079</v>
       </c>
       <c r="C18" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="E18" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="F18" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I18" s="92" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J18" s="93" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K18" s="91"/>
       <c r="L18" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M18" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N18" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O18" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P18" s="95"/>
       <c r="Q18" s="96">
@@ -3221,9 +3253,11 @@
         <v>45082</v>
       </c>
       <c r="S18" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T18" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T18" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U18" s="95"/>
       <c r="V18" s="87"/>
       <c r="W18" s="87"/>
@@ -3234,7 +3268,7 @@
       <c r="AB18" s="89"/>
       <c r="AC18" s="90"/>
     </row>
-    <row r="19" spans="1:29" ht="21">
+    <row r="19" spans="1:29" ht="40">
       <c r="A19" s="64">
         <v>14</v>
       </c>
@@ -3242,41 +3276,41 @@
         <v>45079</v>
       </c>
       <c r="C19" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="E19" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="F19" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I19" s="92" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J19" s="93" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K19" s="91"/>
       <c r="L19" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M19" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N19" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O19" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P19" s="95"/>
       <c r="Q19" s="96">
@@ -3286,9 +3320,11 @@
         <v>45082</v>
       </c>
       <c r="S19" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T19" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T19" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U19" s="95"/>
       <c r="V19" s="87"/>
       <c r="W19" s="87"/>
@@ -3299,7 +3335,7 @@
       <c r="AB19" s="89"/>
       <c r="AC19" s="90"/>
     </row>
-    <row r="20" spans="1:29" ht="21">
+    <row r="20" spans="1:29" ht="40">
       <c r="A20" s="64">
         <v>15</v>
       </c>
@@ -3307,37 +3343,37 @@
         <v>45079</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="70"/>
       <c r="E20" s="70"/>
       <c r="F20" s="67" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G20" s="91" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H20" s="91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I20" s="92" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J20" s="93" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K20" s="91"/>
       <c r="L20" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M20" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N20" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O20" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P20" s="95"/>
       <c r="Q20" s="96">
@@ -3347,9 +3383,11 @@
         <v>45082</v>
       </c>
       <c r="S20" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T20" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T20" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U20" s="95"/>
       <c r="V20" s="87"/>
       <c r="W20" s="87"/>
@@ -3360,7 +3398,7 @@
       <c r="AB20" s="89"/>
       <c r="AC20" s="90"/>
     </row>
-    <row r="21" spans="1:29" ht="21">
+    <row r="21" spans="1:29" ht="40">
       <c r="A21" s="64">
         <v>16</v>
       </c>
@@ -3368,37 +3406,37 @@
         <v>45079</v>
       </c>
       <c r="C21" s="101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="101"/>
       <c r="E21" s="101"/>
       <c r="F21" s="67" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G21" s="99" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H21" s="91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I21" s="92" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J21" s="93" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K21" s="91"/>
       <c r="L21" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M21" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N21" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O21" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P21" s="95"/>
       <c r="Q21" s="96">
@@ -3408,9 +3446,11 @@
         <v>45082</v>
       </c>
       <c r="S21" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T21" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T21" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U21" s="95"/>
       <c r="V21" s="87"/>
       <c r="W21" s="87"/>
@@ -3421,7 +3461,7 @@
       <c r="AB21" s="89"/>
       <c r="AC21" s="90"/>
     </row>
-    <row r="22" spans="1:29" ht="21">
+    <row r="22" spans="1:29" ht="40">
       <c r="A22" s="64">
         <v>17</v>
       </c>
@@ -3429,37 +3469,37 @@
         <v>45079</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
       <c r="F22" s="102" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G22" s="91" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H22" s="91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I22" s="92" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J22" s="93" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K22" s="91"/>
       <c r="L22" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M22" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N22" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O22" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P22" s="95"/>
       <c r="Q22" s="96">
@@ -3469,9 +3509,11 @@
         <v>45082</v>
       </c>
       <c r="S22" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T22" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T22" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U22" s="95"/>
       <c r="V22" s="87"/>
       <c r="W22" s="87"/>
@@ -3482,7 +3524,7 @@
       <c r="AB22" s="89"/>
       <c r="AC22" s="90"/>
     </row>
-    <row r="23" spans="1:29" ht="21">
+    <row r="23" spans="1:29" ht="40">
       <c r="A23" s="64">
         <v>18</v>
       </c>
@@ -3490,41 +3532,41 @@
         <v>45079</v>
       </c>
       <c r="C23" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="E23" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="F23" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I23" s="92" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J23" s="93" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K23" s="91"/>
       <c r="L23" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M23" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N23" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O23" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P23" s="95"/>
       <c r="Q23" s="96">
@@ -3534,9 +3576,11 @@
         <v>45082</v>
       </c>
       <c r="S23" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T23" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T23" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U23" s="95"/>
       <c r="V23" s="87"/>
       <c r="W23" s="87"/>
@@ -3547,7 +3591,7 @@
       <c r="AB23" s="89"/>
       <c r="AC23" s="90"/>
     </row>
-    <row r="24" spans="1:29" ht="21">
+    <row r="24" spans="1:29" ht="40">
       <c r="A24" s="64">
         <v>19</v>
       </c>
@@ -3555,41 +3599,41 @@
         <v>45079</v>
       </c>
       <c r="C24" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="70" t="s">
+      <c r="E24" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="F24" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I24" s="92" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J24" s="93" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K24" s="91"/>
       <c r="L24" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M24" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N24" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O24" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P24" s="95"/>
       <c r="Q24" s="96">
@@ -3599,9 +3643,11 @@
         <v>45082</v>
       </c>
       <c r="S24" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T24" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T24" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U24" s="95"/>
       <c r="V24" s="87"/>
       <c r="W24" s="87"/>
@@ -3612,7 +3658,7 @@
       <c r="AB24" s="89"/>
       <c r="AC24" s="90"/>
     </row>
-    <row r="25" spans="1:29" ht="35">
+    <row r="25" spans="1:29" ht="40">
       <c r="A25" s="64">
         <v>20</v>
       </c>
@@ -3620,39 +3666,39 @@
         <v>45068</v>
       </c>
       <c r="C25" s="101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="101"/>
       <c r="E25" s="101"/>
       <c r="F25" s="102" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G25" s="98" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H25" s="84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I25" s="83" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J25" s="84" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K25" s="84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L25" s="83" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M25" s="83" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N25" s="83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O25" s="83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P25" s="85"/>
       <c r="Q25" s="72">
@@ -3662,9 +3708,11 @@
         <v>45082</v>
       </c>
       <c r="S25" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="T25" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T25" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U25" s="76"/>
       <c r="V25" s="86"/>
       <c r="W25" s="87"/>
@@ -3675,7 +3723,7 @@
       <c r="AB25" s="89"/>
       <c r="AC25" s="90"/>
     </row>
-    <row r="26" spans="1:29" ht="21">
+    <row r="26" spans="1:29" ht="40">
       <c r="A26" s="64">
         <v>21</v>
       </c>
@@ -3683,41 +3731,41 @@
         <v>45079</v>
       </c>
       <c r="C26" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="E26" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="F26" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I26" s="92" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J26" s="93" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K26" s="91"/>
       <c r="L26" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M26" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N26" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O26" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P26" s="95"/>
       <c r="Q26" s="96">
@@ -3727,9 +3775,11 @@
         <v>45082</v>
       </c>
       <c r="S26" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T26" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T26" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U26" s="95"/>
       <c r="V26" s="87"/>
       <c r="W26" s="87"/>
@@ -3740,7 +3790,7 @@
       <c r="AB26" s="89"/>
       <c r="AC26" s="90"/>
     </row>
-    <row r="27" spans="1:29" ht="21">
+    <row r="27" spans="1:29" ht="40">
       <c r="A27" s="64">
         <v>22</v>
       </c>
@@ -3748,41 +3798,41 @@
         <v>45079</v>
       </c>
       <c r="C27" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="E27" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="F27" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I27" s="92" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J27" s="93" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K27" s="91"/>
       <c r="L27" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M27" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N27" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O27" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P27" s="95"/>
       <c r="Q27" s="96">
@@ -3792,9 +3842,11 @@
         <v>45082</v>
       </c>
       <c r="S27" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T27" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T27" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U27" s="95"/>
       <c r="V27" s="87"/>
       <c r="W27" s="87"/>
@@ -3805,7 +3857,7 @@
       <c r="AB27" s="89"/>
       <c r="AC27" s="90"/>
     </row>
-    <row r="28" spans="1:29" ht="21">
+    <row r="28" spans="1:29" ht="40">
       <c r="A28" s="64">
         <v>23</v>
       </c>
@@ -3813,41 +3865,41 @@
         <v>45079</v>
       </c>
       <c r="C28" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="E28" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="70" t="s">
+      <c r="F28" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I28" s="92" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J28" s="93" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K28" s="91"/>
       <c r="L28" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M28" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N28" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O28" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P28" s="95"/>
       <c r="Q28" s="96">
@@ -3857,9 +3909,11 @@
         <v>45082</v>
       </c>
       <c r="S28" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T28" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T28" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U28" s="95"/>
       <c r="V28" s="87"/>
       <c r="W28" s="87"/>
@@ -3870,7 +3924,7 @@
       <c r="AB28" s="89"/>
       <c r="AC28" s="90"/>
     </row>
-    <row r="29" spans="1:29" ht="21">
+    <row r="29" spans="1:29" ht="40">
       <c r="A29" s="64">
         <v>24</v>
       </c>
@@ -3878,37 +3932,37 @@
         <v>45079</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="70"/>
       <c r="E29" s="70"/>
       <c r="F29" s="67" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G29" s="91" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H29" s="91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I29" s="92" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J29" s="93" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K29" s="91"/>
       <c r="L29" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M29" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N29" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O29" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P29" s="95"/>
       <c r="Q29" s="96">
@@ -3918,9 +3972,11 @@
         <v>45082</v>
       </c>
       <c r="S29" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T29" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T29" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U29" s="95"/>
       <c r="V29" s="87"/>
       <c r="W29" s="87"/>
@@ -3931,7 +3987,7 @@
       <c r="AB29" s="89"/>
       <c r="AC29" s="90"/>
     </row>
-    <row r="30" spans="1:29" ht="21">
+    <row r="30" spans="1:29" ht="40">
       <c r="A30" s="64">
         <v>25</v>
       </c>
@@ -3939,37 +3995,37 @@
         <v>45079</v>
       </c>
       <c r="C30" s="101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="101"/>
       <c r="E30" s="101"/>
       <c r="F30" s="67" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G30" s="99" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H30" s="91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I30" s="92" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J30" s="93" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K30" s="91"/>
       <c r="L30" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M30" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N30" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O30" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P30" s="95"/>
       <c r="Q30" s="96">
@@ -3979,9 +4035,11 @@
         <v>45082</v>
       </c>
       <c r="S30" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T30" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T30" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U30" s="95"/>
       <c r="V30" s="87"/>
       <c r="W30" s="87"/>
@@ -3992,7 +4050,7 @@
       <c r="AB30" s="89"/>
       <c r="AC30" s="90"/>
     </row>
-    <row r="31" spans="1:29" ht="21">
+    <row r="31" spans="1:29" ht="40">
       <c r="A31" s="64">
         <v>26</v>
       </c>
@@ -4000,37 +4058,37 @@
         <v>45079</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="70"/>
       <c r="E31" s="70"/>
       <c r="F31" s="102" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G31" s="91" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H31" s="91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I31" s="92" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J31" s="93" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K31" s="91"/>
       <c r="L31" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M31" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N31" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O31" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P31" s="95"/>
       <c r="Q31" s="96">
@@ -4040,9 +4098,11 @@
         <v>45082</v>
       </c>
       <c r="S31" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T31" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T31" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U31" s="95"/>
       <c r="V31" s="87"/>
       <c r="W31" s="87"/>
@@ -4053,7 +4113,7 @@
       <c r="AB31" s="89"/>
       <c r="AC31" s="90"/>
     </row>
-    <row r="32" spans="1:29" ht="21">
+    <row r="32" spans="1:29" ht="40">
       <c r="A32" s="64">
         <v>27</v>
       </c>
@@ -4061,41 +4121,41 @@
         <v>45079</v>
       </c>
       <c r="C32" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="70" t="s">
+      <c r="E32" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="70" t="s">
+      <c r="F32" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="G32" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="H32" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I32" s="92" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J32" s="93" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K32" s="91"/>
       <c r="L32" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M32" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N32" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O32" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P32" s="95"/>
       <c r="Q32" s="96">
@@ -4105,9 +4165,11 @@
         <v>45082</v>
       </c>
       <c r="S32" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T32" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T32" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U32" s="95"/>
       <c r="V32" s="87"/>
       <c r="W32" s="87"/>
@@ -4118,7 +4180,7 @@
       <c r="AB32" s="89"/>
       <c r="AC32" s="90"/>
     </row>
-    <row r="33" spans="1:29" ht="21">
+    <row r="33" spans="1:29" ht="40">
       <c r="A33" s="64">
         <v>28</v>
       </c>
@@ -4126,41 +4188,41 @@
         <v>45079</v>
       </c>
       <c r="C33" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="70" t="s">
+      <c r="E33" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="F33" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="H33" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I33" s="92" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J33" s="93" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K33" s="91"/>
       <c r="L33" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M33" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N33" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O33" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P33" s="95"/>
       <c r="Q33" s="96">
@@ -4170,9 +4232,11 @@
         <v>45082</v>
       </c>
       <c r="S33" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T33" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T33" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U33" s="95"/>
       <c r="V33" s="87"/>
       <c r="W33" s="87"/>
@@ -4183,7 +4247,7 @@
       <c r="AB33" s="89"/>
       <c r="AC33" s="90"/>
     </row>
-    <row r="34" spans="1:29" ht="35">
+    <row r="34" spans="1:29" ht="40">
       <c r="A34" s="64">
         <v>29</v>
       </c>
@@ -4191,39 +4255,39 @@
         <v>45068</v>
       </c>
       <c r="C34" s="101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="101"/>
       <c r="E34" s="101"/>
       <c r="F34" s="102" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G34" s="98" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H34" s="84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I34" s="83" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J34" s="84" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K34" s="84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L34" s="83" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M34" s="83" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N34" s="83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O34" s="83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P34" s="85"/>
       <c r="Q34" s="72">
@@ -4233,9 +4297,11 @@
         <v>45082</v>
       </c>
       <c r="S34" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="T34" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T34" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U34" s="76"/>
       <c r="V34" s="86"/>
       <c r="W34" s="87"/>
@@ -4246,7 +4312,7 @@
       <c r="AB34" s="89"/>
       <c r="AC34" s="90"/>
     </row>
-    <row r="35" spans="1:29" ht="21">
+    <row r="35" spans="1:29" ht="40">
       <c r="A35" s="64">
         <v>30</v>
       </c>
@@ -4254,41 +4320,41 @@
         <v>45079</v>
       </c>
       <c r="C35" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="70" t="s">
+      <c r="E35" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="F35" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I35" s="92" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J35" s="93" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K35" s="91"/>
       <c r="L35" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M35" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N35" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O35" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P35" s="95"/>
       <c r="Q35" s="96">
@@ -4298,9 +4364,11 @@
         <v>45082</v>
       </c>
       <c r="S35" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T35" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T35" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U35" s="95"/>
       <c r="V35" s="87"/>
       <c r="W35" s="87"/>
@@ -4311,7 +4379,7 @@
       <c r="AB35" s="89"/>
       <c r="AC35" s="90"/>
     </row>
-    <row r="36" spans="1:29" ht="21">
+    <row r="36" spans="1:29" ht="40">
       <c r="A36" s="64">
         <v>31</v>
       </c>
@@ -4319,41 +4387,41 @@
         <v>45079</v>
       </c>
       <c r="C36" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="70" t="s">
+      <c r="E36" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="F36" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G36" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="H36" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I36" s="92" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J36" s="93" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K36" s="91"/>
       <c r="L36" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M36" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N36" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O36" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P36" s="95"/>
       <c r="Q36" s="96">
@@ -4363,9 +4431,11 @@
         <v>45082</v>
       </c>
       <c r="S36" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T36" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T36" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U36" s="95"/>
       <c r="V36" s="87"/>
       <c r="W36" s="87"/>
@@ -4376,7 +4446,7 @@
       <c r="AB36" s="89"/>
       <c r="AC36" s="90"/>
     </row>
-    <row r="37" spans="1:29" ht="21">
+    <row r="37" spans="1:29" ht="40">
       <c r="A37" s="64">
         <v>32</v>
       </c>
@@ -4384,41 +4454,41 @@
         <v>45079</v>
       </c>
       <c r="C37" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="70" t="s">
+      <c r="E37" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="70" t="s">
+      <c r="F37" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="G37" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I37" s="92" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J37" s="93" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K37" s="91"/>
       <c r="L37" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M37" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N37" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O37" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P37" s="95"/>
       <c r="Q37" s="96">
@@ -4428,9 +4498,11 @@
         <v>45082</v>
       </c>
       <c r="S37" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T37" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T37" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U37" s="95"/>
       <c r="V37" s="87"/>
       <c r="W37" s="87"/>
@@ -4441,7 +4513,7 @@
       <c r="AB37" s="89"/>
       <c r="AC37" s="90"/>
     </row>
-    <row r="38" spans="1:29" ht="21">
+    <row r="38" spans="1:29" ht="40">
       <c r="A38" s="64">
         <v>33</v>
       </c>
@@ -4449,37 +4521,37 @@
         <v>45079</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="70"/>
       <c r="E38" s="70"/>
       <c r="F38" s="67" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G38" s="91" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H38" s="91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I38" s="92" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J38" s="93" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K38" s="91"/>
       <c r="L38" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M38" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N38" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O38" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P38" s="95"/>
       <c r="Q38" s="96">
@@ -4489,9 +4561,11 @@
         <v>45082</v>
       </c>
       <c r="S38" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T38" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T38" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U38" s="95"/>
       <c r="V38" s="87"/>
       <c r="W38" s="87"/>
@@ -4502,7 +4576,7 @@
       <c r="AB38" s="89"/>
       <c r="AC38" s="90"/>
     </row>
-    <row r="39" spans="1:29" ht="21">
+    <row r="39" spans="1:29" ht="40">
       <c r="A39" s="64">
         <v>34</v>
       </c>
@@ -4510,37 +4584,37 @@
         <v>45079</v>
       </c>
       <c r="C39" s="101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="101"/>
       <c r="E39" s="101"/>
       <c r="F39" s="67" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G39" s="99" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H39" s="91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I39" s="92" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J39" s="93" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K39" s="91"/>
       <c r="L39" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M39" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N39" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O39" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P39" s="95"/>
       <c r="Q39" s="96">
@@ -4550,9 +4624,11 @@
         <v>45082</v>
       </c>
       <c r="S39" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T39" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T39" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U39" s="95"/>
       <c r="V39" s="87"/>
       <c r="W39" s="87"/>
@@ -4563,7 +4639,7 @@
       <c r="AB39" s="89"/>
       <c r="AC39" s="90"/>
     </row>
-    <row r="40" spans="1:29" ht="21">
+    <row r="40" spans="1:29" ht="40">
       <c r="A40" s="64">
         <v>35</v>
       </c>
@@ -4571,37 +4647,37 @@
         <v>45079</v>
       </c>
       <c r="C40" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="70"/>
       <c r="E40" s="70"/>
       <c r="F40" s="102" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G40" s="91" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H40" s="91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I40" s="92" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J40" s="93" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K40" s="91"/>
       <c r="L40" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M40" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N40" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O40" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P40" s="95"/>
       <c r="Q40" s="96">
@@ -4611,9 +4687,11 @@
         <v>45082</v>
       </c>
       <c r="S40" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T40" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T40" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U40" s="95"/>
       <c r="V40" s="87"/>
       <c r="W40" s="87"/>
@@ -4624,7 +4702,7 @@
       <c r="AB40" s="89"/>
       <c r="AC40" s="90"/>
     </row>
-    <row r="41" spans="1:29" ht="21">
+    <row r="41" spans="1:29" ht="40">
       <c r="A41" s="64">
         <v>36</v>
       </c>
@@ -4632,41 +4710,41 @@
         <v>45079</v>
       </c>
       <c r="C41" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="70" t="s">
+      <c r="E41" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="F41" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="H41" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I41" s="92" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J41" s="93" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K41" s="91"/>
       <c r="L41" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M41" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N41" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O41" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P41" s="95"/>
       <c r="Q41" s="96">
@@ -4676,9 +4754,11 @@
         <v>45082</v>
       </c>
       <c r="S41" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T41" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T41" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U41" s="95"/>
       <c r="V41" s="87"/>
       <c r="W41" s="87"/>
@@ -4689,7 +4769,7 @@
       <c r="AB41" s="89"/>
       <c r="AC41" s="90"/>
     </row>
-    <row r="42" spans="1:29" ht="21">
+    <row r="42" spans="1:29" ht="40">
       <c r="A42" s="64">
         <v>37</v>
       </c>
@@ -4697,41 +4777,41 @@
         <v>45079</v>
       </c>
       <c r="C42" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="70" t="s">
+      <c r="E42" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="70" t="s">
+      <c r="F42" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="H42" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G42" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="H42" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I42" s="92" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J42" s="93" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K42" s="91"/>
       <c r="L42" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M42" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N42" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O42" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P42" s="95"/>
       <c r="Q42" s="96">
@@ -4741,9 +4821,11 @@
         <v>45082</v>
       </c>
       <c r="S42" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T42" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T42" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U42" s="95"/>
       <c r="V42" s="87"/>
       <c r="W42" s="87"/>
@@ -4754,7 +4836,7 @@
       <c r="AB42" s="89"/>
       <c r="AC42" s="90"/>
     </row>
-    <row r="43" spans="1:29" ht="21">
+    <row r="43" spans="1:29" ht="40">
       <c r="A43" s="64">
         <v>38</v>
       </c>
@@ -4762,37 +4844,37 @@
         <v>45079</v>
       </c>
       <c r="C43" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="70"/>
       <c r="E43" s="70"/>
       <c r="F43" s="102" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G43" s="91" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H43" s="91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I43" s="92" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J43" s="93" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K43" s="91"/>
       <c r="L43" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M43" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N43" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O43" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P43" s="95"/>
       <c r="Q43" s="96">
@@ -4802,9 +4884,11 @@
         <v>45082</v>
       </c>
       <c r="S43" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T43" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T43" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U43" s="95"/>
       <c r="V43" s="87"/>
       <c r="W43" s="87"/>
@@ -4815,7 +4899,7 @@
       <c r="AB43" s="89"/>
       <c r="AC43" s="90"/>
     </row>
-    <row r="44" spans="1:29" ht="21">
+    <row r="44" spans="1:29" ht="40">
       <c r="A44" s="64">
         <v>39</v>
       </c>
@@ -4823,41 +4907,41 @@
         <v>45079</v>
       </c>
       <c r="C44" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="70" t="s">
+      <c r="E44" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="70" t="s">
+      <c r="F44" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="H44" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="G44" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="H44" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I44" s="92" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J44" s="93" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K44" s="91"/>
       <c r="L44" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M44" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N44" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O44" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P44" s="95"/>
       <c r="Q44" s="96">
@@ -4867,9 +4951,11 @@
         <v>45082</v>
       </c>
       <c r="S44" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T44" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="T44" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="U44" s="95"/>
       <c r="V44" s="87"/>
       <c r="W44" s="87"/>
@@ -4880,7 +4966,7 @@
       <c r="AB44" s="89"/>
       <c r="AC44" s="90"/>
     </row>
-    <row r="45" spans="1:29" ht="21">
+    <row r="45" spans="1:29" ht="40">
       <c r="A45" s="64">
         <v>40</v>
       </c>
@@ -4888,41 +4974,41 @@
         <v>45079</v>
       </c>
       <c r="C45" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="70" t="s">
+      <c r="E45" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="70" t="s">
+      <c r="F45" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="H45" s="91" t="s">
-        <v>39</v>
-      </c>
       <c r="I45" s="92" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J45" s="93" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K45" s="91"/>
       <c r="L45" s="91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M45" s="91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N45" s="92" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O45" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P45" s="95"/>
       <c r="Q45" s="96">
@@ -4932,10 +5018,14 @@
         <v>45082</v>
       </c>
       <c r="S45" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="T45" s="75"/>
-      <c r="U45" s="95"/>
+        <v>52</v>
+      </c>
+      <c r="T45" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="U45" s="76" t="s">
+        <v>113</v>
+      </c>
       <c r="V45" s="87"/>
       <c r="W45" s="87"/>
       <c r="X45" s="88"/>
